--- a/task1feb2022/streams/31d5_WMSFU.xlsx
+++ b/task1feb2022/streams/31d5_WMSFU.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aed31\Desktop\Adam feb 2023\task1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aed31\Desktop\reactdoing\data\task1feb2022\streams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD43714-6224-4445-8C71-C6D29893EB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3542F0AB-F0C7-4F6E-9E5B-62F122185F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hydrology_WMSFU" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="5">
   <si>
     <t>Site_Code</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Discharge (cfs)</t>
-  </si>
-  <si>
-    <t>E = Estimate; W = Warning; P = Provisional</t>
   </si>
   <si>
     <t>31d5</t>
@@ -886,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E923"/>
+  <dimension ref="A1:D923"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -898,7 +895,7 @@
     <col min="4" max="4" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -911,13 +908,10 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>43959</v>
@@ -929,9 +923,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>43960</v>
@@ -943,9 +937,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>43961</v>
@@ -957,9 +951,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>43962</v>
@@ -971,9 +965,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>43963</v>
@@ -985,9 +979,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>43964</v>
@@ -999,9 +993,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>43965</v>
@@ -1013,9 +1007,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1">
         <v>43966</v>
@@ -1027,9 +1021,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
         <v>43967</v>
@@ -1041,9 +1035,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
         <v>43968</v>
@@ -1055,9 +1049,9 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1">
         <v>43969</v>
@@ -1069,9 +1063,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1">
         <v>43970</v>
@@ -1083,9 +1077,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1">
         <v>43971</v>
@@ -1097,9 +1091,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1">
         <v>43972</v>
@@ -1111,9 +1105,9 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1">
         <v>43973</v>
@@ -1127,7 +1121,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1">
         <v>43974</v>
@@ -1141,7 +1135,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1">
         <v>43975</v>
@@ -1155,7 +1149,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1">
         <v>43976</v>
@@ -1169,7 +1163,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1">
         <v>43977</v>
@@ -1183,7 +1177,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1">
         <v>43978</v>
@@ -1197,7 +1191,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1">
         <v>43979</v>
@@ -1211,7 +1205,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1">
         <v>43980</v>
@@ -1225,7 +1219,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1">
         <v>43981</v>
@@ -1239,7 +1233,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1">
         <v>43982</v>
@@ -1253,7 +1247,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="1">
         <v>43983</v>
@@ -1267,7 +1261,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="1">
         <v>43984</v>
@@ -1281,7 +1275,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="1">
         <v>43985</v>
@@ -1295,7 +1289,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" s="1">
         <v>43986</v>
@@ -1309,7 +1303,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" s="1">
         <v>43987</v>
@@ -1323,7 +1317,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" s="1">
         <v>43988</v>
@@ -1337,7 +1331,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" s="1">
         <v>43989</v>
@@ -1351,7 +1345,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="1">
         <v>43990</v>
@@ -1365,7 +1359,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="1">
         <v>43991</v>
@@ -1379,7 +1373,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" s="1">
         <v>43992</v>
@@ -1393,7 +1387,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" s="1">
         <v>43993</v>
@@ -1407,7 +1401,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37" s="1">
         <v>43994</v>
@@ -1421,7 +1415,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" s="1">
         <v>43995</v>
@@ -1435,7 +1429,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" s="1">
         <v>43996</v>
@@ -1449,7 +1443,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" s="1">
         <v>43997</v>
@@ -1463,7 +1457,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" s="1">
         <v>43998</v>
@@ -1477,7 +1471,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" s="1">
         <v>43999</v>
@@ -1491,7 +1485,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" s="1">
         <v>44000</v>
@@ -1505,7 +1499,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44" s="1">
         <v>44001</v>
@@ -1519,7 +1513,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" s="1">
         <v>44002</v>
@@ -1533,7 +1527,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B46" s="1">
         <v>44003</v>
@@ -1547,7 +1541,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47" s="1">
         <v>44004</v>
@@ -1561,7 +1555,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" s="1">
         <v>44005</v>
@@ -1575,7 +1569,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B49" s="1">
         <v>44006</v>
@@ -1589,7 +1583,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50" s="1">
         <v>44007</v>
@@ -1603,7 +1597,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51" s="1">
         <v>44008</v>
@@ -1617,7 +1611,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52" s="1">
         <v>44009</v>
@@ -1631,7 +1625,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53" s="1">
         <v>44010</v>
@@ -1645,7 +1639,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" s="1">
         <v>44011</v>
@@ -1659,7 +1653,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B55" s="1">
         <v>44012</v>
@@ -1673,7 +1667,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56" s="1">
         <v>44013</v>
@@ -1687,7 +1681,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B57" s="1">
         <v>44014</v>
@@ -1701,7 +1695,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B58" s="1">
         <v>44015</v>
@@ -1715,7 +1709,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B59" s="1">
         <v>44016</v>
@@ -1729,7 +1723,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60" s="1">
         <v>44017</v>
@@ -1743,7 +1737,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61" s="1">
         <v>44018</v>
@@ -1757,7 +1751,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B62" s="1">
         <v>44019</v>
@@ -1771,7 +1765,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63" s="1">
         <v>44020</v>
@@ -1785,7 +1779,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B64" s="1">
         <v>44021</v>
@@ -1799,7 +1793,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B65" s="1">
         <v>44022</v>
@@ -1813,7 +1807,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B66" s="1">
         <v>44023</v>
@@ -1827,7 +1821,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B67" s="1">
         <v>44024</v>
@@ -1841,7 +1835,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B68" s="1">
         <v>44025</v>
@@ -1855,7 +1849,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B69" s="1">
         <v>44026</v>
@@ -1869,7 +1863,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B70" s="1">
         <v>44027</v>
@@ -1883,7 +1877,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B71" s="1">
         <v>44028</v>
@@ -1897,7 +1891,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B72" s="1">
         <v>44029</v>
@@ -1911,7 +1905,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B73" s="1">
         <v>44030</v>
@@ -1925,7 +1919,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B74" s="1">
         <v>44031</v>
@@ -1939,7 +1933,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B75" s="1">
         <v>44032</v>
@@ -1953,7 +1947,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B76" s="1">
         <v>44033</v>
@@ -1967,7 +1961,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B77" s="1">
         <v>44034</v>
@@ -1981,7 +1975,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B78" s="1">
         <v>44035</v>
@@ -1995,7 +1989,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B79" s="1">
         <v>44036</v>
@@ -2009,7 +2003,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B80" s="1">
         <v>44037</v>
@@ -2023,7 +2017,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B81" s="1">
         <v>44038</v>
@@ -2037,7 +2031,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B82" s="1">
         <v>44039</v>
@@ -2051,7 +2045,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B83" s="1">
         <v>44040</v>
@@ -2065,7 +2059,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B84" s="1">
         <v>44041</v>
@@ -2079,7 +2073,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B85" s="1">
         <v>44042</v>
@@ -2093,7 +2087,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B86" s="1">
         <v>44043</v>
@@ -2107,7 +2101,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B87" s="1">
         <v>44044</v>
@@ -2121,7 +2115,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B88" s="1">
         <v>44045</v>
@@ -2135,7 +2129,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B89" s="1">
         <v>44046</v>
@@ -2149,7 +2143,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B90" s="1">
         <v>44047</v>
@@ -2163,7 +2157,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B91" s="1">
         <v>44048</v>
@@ -2177,7 +2171,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B92" s="1">
         <v>44049</v>
@@ -2191,7 +2185,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B93" s="1">
         <v>44050</v>
@@ -2205,7 +2199,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B94" s="1">
         <v>44051</v>
@@ -2219,7 +2213,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B95" s="1">
         <v>44052</v>
@@ -2233,7 +2227,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B96" s="1">
         <v>44053</v>
@@ -2247,7 +2241,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B97" s="1">
         <v>44054</v>
@@ -2261,7 +2255,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B98" s="1">
         <v>44055</v>
@@ -2275,7 +2269,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B99" s="1">
         <v>44056</v>
@@ -2289,7 +2283,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B100" s="1">
         <v>44057</v>
@@ -2303,7 +2297,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B101" s="1">
         <v>44058</v>
@@ -2317,7 +2311,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B102" s="1">
         <v>44059</v>
@@ -2331,7 +2325,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B103" s="1">
         <v>44060</v>
@@ -2345,7 +2339,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B104" s="1">
         <v>44061</v>
@@ -2359,7 +2353,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B105" s="1">
         <v>44062</v>
@@ -2373,7 +2367,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B106" s="1">
         <v>44063</v>
@@ -2387,7 +2381,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B107" s="1">
         <v>44064</v>
@@ -2401,7 +2395,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B108" s="1">
         <v>44065</v>
@@ -2415,7 +2409,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B109" s="1">
         <v>44066</v>
@@ -2429,7 +2423,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B110" s="1">
         <v>44067</v>
@@ -2443,7 +2437,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B111" s="1">
         <v>44068</v>
@@ -2457,7 +2451,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B112" s="1">
         <v>44069</v>
@@ -2471,7 +2465,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B113" s="1">
         <v>44070</v>
@@ -2485,7 +2479,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B114" s="1">
         <v>44071</v>
@@ -2499,7 +2493,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B115" s="1">
         <v>44072</v>
@@ -2513,7 +2507,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B116" s="1">
         <v>44073</v>
@@ -2527,7 +2521,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B117" s="1">
         <v>44074</v>
@@ -2541,7 +2535,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B118" s="1">
         <v>44075</v>
@@ -2555,7 +2549,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B119" s="1">
         <v>44076</v>
@@ -2569,7 +2563,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B120" s="1">
         <v>44077</v>
@@ -2583,7 +2577,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B121" s="1">
         <v>44078</v>
@@ -2597,7 +2591,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B122" s="1">
         <v>44079</v>
@@ -2611,7 +2605,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B123" s="1">
         <v>44080</v>
@@ -2625,7 +2619,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B124" s="1">
         <v>44081</v>
@@ -2639,7 +2633,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B125" s="1">
         <v>44082</v>
@@ -2653,7 +2647,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B126" s="1">
         <v>44083</v>
@@ -2667,7 +2661,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B127" s="1">
         <v>44084</v>
@@ -2681,7 +2675,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B128" s="1">
         <v>44085</v>
@@ -2695,7 +2689,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B129" s="1">
         <v>44086</v>
@@ -2709,7 +2703,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B130" s="1">
         <v>44087</v>
@@ -2723,7 +2717,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B131" s="1">
         <v>44088</v>
@@ -2737,7 +2731,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B132" s="1">
         <v>44089</v>
@@ -2751,7 +2745,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B133" s="1">
         <v>44090</v>
@@ -2765,7 +2759,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B134" s="1">
         <v>44091</v>
@@ -2779,7 +2773,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B135" s="1">
         <v>44092</v>
@@ -2793,7 +2787,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B136" s="1">
         <v>44093</v>
@@ -2807,7 +2801,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B137" s="1">
         <v>44094</v>
@@ -2821,7 +2815,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B138" s="1">
         <v>44095</v>
@@ -2835,7 +2829,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B139" s="1">
         <v>44096</v>
@@ -2849,7 +2843,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B140" s="1">
         <v>44097</v>
@@ -2863,7 +2857,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B141" s="1">
         <v>44098</v>
@@ -2877,7 +2871,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B142" s="1">
         <v>44099</v>
@@ -2891,7 +2885,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B143" s="1">
         <v>44100</v>
@@ -2905,7 +2899,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B144" s="1">
         <v>44101</v>
@@ -2919,7 +2913,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B145" s="1">
         <v>44102</v>
@@ -2933,7 +2927,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B146" s="1">
         <v>44103</v>
@@ -2947,7 +2941,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B147" s="1">
         <v>44104</v>
@@ -2961,7 +2955,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B148" s="1">
         <v>44105</v>
@@ -2975,7 +2969,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B149" s="1">
         <v>44106</v>
@@ -2989,7 +2983,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B150" s="1">
         <v>44107</v>
@@ -3003,7 +2997,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B151" s="1">
         <v>44108</v>
@@ -3017,7 +3011,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B152" s="1">
         <v>44109</v>
@@ -3031,7 +3025,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B153" s="1">
         <v>44110</v>
@@ -3045,7 +3039,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B154" s="1">
         <v>44111</v>
@@ -3059,7 +3053,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B155" s="1">
         <v>44112</v>
@@ -3073,7 +3067,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B156" s="1">
         <v>44113</v>
@@ -3087,7 +3081,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B157" s="1">
         <v>44114</v>
@@ -3101,7 +3095,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B158" s="1">
         <v>44115</v>
@@ -3115,7 +3109,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B159" s="1">
         <v>44116</v>
@@ -3129,7 +3123,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B160" s="1">
         <v>44117</v>
@@ -3143,7 +3137,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B161" s="1">
         <v>44118</v>
@@ -3157,7 +3151,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B162" s="1">
         <v>44119</v>
@@ -3171,7 +3165,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B163" s="1">
         <v>44120</v>
@@ -3185,7 +3179,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B164" s="1">
         <v>44121</v>
@@ -3199,7 +3193,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B165" s="1">
         <v>44122</v>
@@ -3213,7 +3207,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B166" s="1">
         <v>44123</v>
@@ -3227,7 +3221,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B167" s="1">
         <v>44124</v>
@@ -3241,7 +3235,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B168" s="1">
         <v>44125</v>
@@ -3255,7 +3249,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B169" s="1">
         <v>44126</v>
@@ -3269,7 +3263,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B170" s="1">
         <v>44127</v>
@@ -3283,7 +3277,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B171" s="1">
         <v>44128</v>
@@ -3297,7 +3291,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B172" s="1">
         <v>44129</v>
@@ -3311,7 +3305,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B173" s="1">
         <v>44130</v>
@@ -3325,7 +3319,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B174" s="1">
         <v>44131</v>
@@ -3339,7 +3333,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B175" s="1">
         <v>44132</v>
@@ -3353,7 +3347,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B176" s="1">
         <v>44133</v>
@@ -3367,7 +3361,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B177" s="1">
         <v>44134</v>
@@ -3381,7 +3375,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B178" s="1">
         <v>44135</v>
@@ -3395,7 +3389,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B179" s="1">
         <v>44136</v>
@@ -3409,7 +3403,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B180" s="1">
         <v>44137</v>
@@ -3423,7 +3417,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B181" s="1">
         <v>44138</v>
@@ -3437,7 +3431,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B182" s="1">
         <v>44139</v>
@@ -3451,7 +3445,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B183" s="1">
         <v>44140</v>
@@ -3465,7 +3459,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B184" s="1">
         <v>44141</v>
@@ -3479,7 +3473,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B185" s="1">
         <v>44142</v>
@@ -3493,7 +3487,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B186" s="1">
         <v>44143</v>
@@ -3507,7 +3501,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B187" s="1">
         <v>44144</v>
@@ -3521,7 +3515,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B188" s="1">
         <v>44145</v>
@@ -3535,7 +3529,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B189" s="1">
         <v>44146</v>
@@ -3549,7 +3543,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B190" s="1">
         <v>44147</v>
@@ -3563,7 +3557,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B191" s="1">
         <v>44148</v>
@@ -3577,7 +3571,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B192" s="1">
         <v>44149</v>
@@ -3591,7 +3585,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B193" s="1">
         <v>44150</v>
@@ -3605,7 +3599,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B194" s="1">
         <v>44151</v>
@@ -3619,7 +3613,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B195" s="1">
         <v>44152</v>
@@ -3633,7 +3627,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B196" s="1">
         <v>44153</v>
@@ -3647,7 +3641,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B197" s="1">
         <v>44154</v>
@@ -3661,7 +3655,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B198" s="1">
         <v>44155</v>
@@ -3675,7 +3669,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B199" s="1">
         <v>44156</v>
@@ -3689,7 +3683,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B200" s="1">
         <v>44157</v>
@@ -3703,7 +3697,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B201" s="1">
         <v>44158</v>
@@ -3717,7 +3711,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B202" s="1">
         <v>44159</v>
@@ -3731,7 +3725,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B203" s="1">
         <v>44160</v>
@@ -3745,7 +3739,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B204" s="1">
         <v>44161</v>
@@ -3759,7 +3753,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B205" s="1">
         <v>44162</v>
@@ -3773,7 +3767,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B206" s="1">
         <v>44163</v>
@@ -3787,7 +3781,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B207" s="1">
         <v>44164</v>
@@ -3801,7 +3795,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B208" s="1">
         <v>44165</v>
@@ -3815,7 +3809,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B209" s="1">
         <v>44166</v>
@@ -3829,7 +3823,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B210" s="1">
         <v>44167</v>
@@ -3843,7 +3837,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B211" s="1">
         <v>44168</v>
@@ -3857,7 +3851,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B212" s="1">
         <v>44169</v>
@@ -3871,7 +3865,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B213" s="1">
         <v>44170</v>
@@ -3885,7 +3879,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B214" s="1">
         <v>44171</v>
@@ -3899,7 +3893,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B215" s="1">
         <v>44172</v>
@@ -3913,7 +3907,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B216" s="1">
         <v>44173</v>
@@ -3927,7 +3921,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B217" s="1">
         <v>44174</v>
@@ -3941,7 +3935,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B218" s="1">
         <v>44175</v>
@@ -3955,7 +3949,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B219" s="1">
         <v>44176</v>
@@ -3969,7 +3963,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B220" s="1">
         <v>44177</v>
@@ -3983,7 +3977,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B221" s="1">
         <v>44178</v>
@@ -3997,7 +3991,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B222" s="1">
         <v>44179</v>
@@ -4011,7 +4005,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B223" s="1">
         <v>44180</v>
@@ -4025,7 +4019,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B224" s="1">
         <v>44181</v>
@@ -4039,7 +4033,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B225" s="1">
         <v>44182</v>
@@ -4053,7 +4047,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B226" s="1">
         <v>44183</v>
@@ -4067,7 +4061,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B227" s="1">
         <v>44184</v>
@@ -4081,7 +4075,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B228" s="1">
         <v>44185</v>
@@ -4095,7 +4089,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B229" s="1">
         <v>44186</v>
@@ -4109,7 +4103,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B230" s="1">
         <v>44187</v>
@@ -4123,7 +4117,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B231" s="1">
         <v>44188</v>
@@ -4137,7 +4131,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B232" s="1">
         <v>44189</v>
@@ -4151,7 +4145,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B233" s="1">
         <v>44190</v>
@@ -4165,7 +4159,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B234" s="1">
         <v>44191</v>
@@ -4179,7 +4173,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B235" s="1">
         <v>44192</v>
@@ -4193,7 +4187,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B236" s="1">
         <v>44193</v>
@@ -4207,7 +4201,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B237" s="1">
         <v>44194</v>
@@ -4221,7 +4215,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B238" s="1">
         <v>44195</v>
@@ -4235,7 +4229,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B239" s="1">
         <v>44196</v>
@@ -4249,7 +4243,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B240" s="1">
         <v>44197</v>
@@ -4263,7 +4257,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B241" s="1">
         <v>44198</v>
@@ -4277,7 +4271,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B242" s="1">
         <v>44199</v>
@@ -4291,7 +4285,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B243" s="1">
         <v>44200</v>
@@ -4305,7 +4299,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B244" s="1">
         <v>44201</v>
@@ -4319,7 +4313,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B245" s="1">
         <v>44202</v>
@@ -4333,7 +4327,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B246" s="1">
         <v>44203</v>
@@ -4347,7 +4341,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B247" s="1">
         <v>44204</v>
@@ -4361,7 +4355,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B248" s="1">
         <v>44205</v>
@@ -4375,7 +4369,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B249" s="1">
         <v>44206</v>
@@ -4389,7 +4383,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B250" s="1">
         <v>44207</v>
@@ -4403,7 +4397,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B251" s="1">
         <v>44208</v>
@@ -4417,7 +4411,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B252" s="1">
         <v>44209</v>
@@ -4431,7 +4425,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B253" s="1">
         <v>44210</v>
@@ -4445,7 +4439,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B254" s="1">
         <v>44211</v>
@@ -4459,7 +4453,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B255" s="1">
         <v>44212</v>
@@ -4473,7 +4467,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B256" s="1">
         <v>44213</v>
@@ -4487,7 +4481,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B257" s="1">
         <v>44214</v>
@@ -4501,7 +4495,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B258" s="1">
         <v>44215</v>
@@ -4515,7 +4509,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B259" s="1">
         <v>44216</v>
@@ -4529,7 +4523,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B260" s="1">
         <v>44217</v>
@@ -4543,7 +4537,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B261" s="1">
         <v>44218</v>
@@ -4557,7 +4551,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B262" s="1">
         <v>44219</v>
@@ -4571,7 +4565,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B263" s="1">
         <v>44220</v>
@@ -4585,7 +4579,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B264" s="1">
         <v>44221</v>
@@ -4599,7 +4593,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B265" s="1">
         <v>44222</v>
@@ -4613,7 +4607,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B266" s="1">
         <v>44223</v>
@@ -4627,7 +4621,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B267" s="1">
         <v>44224</v>
@@ -4641,7 +4635,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B268" s="1">
         <v>44225</v>
@@ -4655,7 +4649,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B269" s="1">
         <v>44226</v>
@@ -4669,7 +4663,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B270" s="1">
         <v>44227</v>
@@ -4683,7 +4677,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B271" s="1">
         <v>44228</v>
@@ -4697,7 +4691,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B272" s="1">
         <v>44229</v>
@@ -4711,7 +4705,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B273" s="1">
         <v>44230</v>
@@ -4725,7 +4719,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B274" s="1">
         <v>44231</v>
@@ -4739,7 +4733,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B275" s="1">
         <v>44232</v>
@@ -4753,7 +4747,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B276" s="1">
         <v>44233</v>
@@ -4767,7 +4761,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B277" s="1">
         <v>44234</v>
@@ -4781,7 +4775,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B278" s="1">
         <v>44235</v>
@@ -4795,7 +4789,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B279" s="1">
         <v>44236</v>
@@ -4809,7 +4803,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B280" s="1">
         <v>44237</v>
@@ -4823,7 +4817,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B281" s="1">
         <v>44238</v>
@@ -4837,7 +4831,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B282" s="1">
         <v>44239</v>
@@ -4851,7 +4845,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B283" s="1">
         <v>44240</v>
@@ -4865,7 +4859,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B284" s="1">
         <v>44241</v>
@@ -4879,7 +4873,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B285" s="1">
         <v>44242</v>
@@ -4893,7 +4887,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B286" s="1">
         <v>44243</v>
@@ -4907,7 +4901,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B287" s="1">
         <v>44244</v>
@@ -4921,7 +4915,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B288" s="1">
         <v>44245</v>
@@ -4935,7 +4929,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B289" s="1">
         <v>44246</v>
@@ -4949,7 +4943,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B290" s="1">
         <v>44247</v>
@@ -4963,7 +4957,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B291" s="1">
         <v>44248</v>
@@ -4977,7 +4971,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B292" s="1">
         <v>44249</v>
@@ -4991,7 +4985,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B293" s="1">
         <v>44250</v>
@@ -5005,7 +4999,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B294" s="1">
         <v>44251</v>
@@ -5019,7 +5013,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B295" s="1">
         <v>44252</v>
@@ -5033,7 +5027,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B296" s="1">
         <v>44253</v>
@@ -5047,7 +5041,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B297" s="1">
         <v>44254</v>
@@ -5061,7 +5055,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B298" s="1">
         <v>44255</v>
@@ -5075,7 +5069,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B299" s="1">
         <v>44256</v>
@@ -5089,7 +5083,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B300" s="1">
         <v>44257</v>
@@ -5103,7 +5097,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B301" s="1">
         <v>44258</v>
@@ -5117,7 +5111,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B302" s="1">
         <v>44259</v>
@@ -5131,7 +5125,7 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B303" s="1">
         <v>44260</v>
@@ -5145,7 +5139,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B304" s="1">
         <v>44261</v>
@@ -5159,7 +5153,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B305" s="1">
         <v>44262</v>
@@ -5173,7 +5167,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B306" s="1">
         <v>44263</v>
@@ -5187,7 +5181,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B307" s="1">
         <v>44264</v>
@@ -5201,7 +5195,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B308" s="1">
         <v>44265</v>
@@ -5215,7 +5209,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B309" s="1">
         <v>44266</v>
@@ -5229,7 +5223,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B310" s="1">
         <v>44267</v>
@@ -5243,7 +5237,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B311" s="1">
         <v>44268</v>
@@ -5257,7 +5251,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B312" s="1">
         <v>44269</v>
@@ -5271,7 +5265,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B313" s="1">
         <v>44270</v>
@@ -5285,7 +5279,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B314" s="1">
         <v>44271</v>
@@ -5299,7 +5293,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B315" s="1">
         <v>44272</v>
@@ -5313,7 +5307,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B316" s="1">
         <v>44273</v>
@@ -5327,7 +5321,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B317" s="1">
         <v>44274</v>
@@ -5341,7 +5335,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B318" s="1">
         <v>44275</v>
@@ -5355,7 +5349,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B319" s="1">
         <v>44276</v>
@@ -5369,7 +5363,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B320" s="1">
         <v>44277</v>
@@ -5383,7 +5377,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B321" s="1">
         <v>44278</v>
@@ -5397,7 +5391,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B322" s="1">
         <v>44279</v>
@@ -5411,7 +5405,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B323" s="1">
         <v>44280</v>
@@ -5425,7 +5419,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B324" s="1">
         <v>44281</v>
@@ -5439,7 +5433,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B325" s="1">
         <v>44282</v>
@@ -5453,7 +5447,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B326" s="1">
         <v>44283</v>
@@ -5467,7 +5461,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B327" s="1">
         <v>44284</v>
@@ -5481,7 +5475,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B328" s="1">
         <v>44285</v>
@@ -5495,7 +5489,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B329" s="1">
         <v>44286</v>
@@ -5509,7 +5503,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B330" s="1">
         <v>44287</v>
@@ -5523,7 +5517,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B331" s="1">
         <v>44288</v>
@@ -5537,7 +5531,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B332" s="1">
         <v>44289</v>
@@ -5551,7 +5545,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B333" s="1">
         <v>44290</v>
@@ -5565,7 +5559,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B334" s="1">
         <v>44291</v>
@@ -5579,7 +5573,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B335" s="1">
         <v>44292</v>
@@ -5593,7 +5587,7 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B336" s="1">
         <v>44293</v>
@@ -5607,7 +5601,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B337" s="1">
         <v>44294</v>
@@ -5621,7 +5615,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B338" s="1">
         <v>44295</v>
@@ -5635,7 +5629,7 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B339" s="1">
         <v>44296</v>
@@ -5649,7 +5643,7 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B340" s="1">
         <v>44297</v>
@@ -5663,7 +5657,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B341" s="1">
         <v>44298</v>
@@ -5677,7 +5671,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B342" s="1">
         <v>44299</v>
@@ -5691,7 +5685,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B343" s="1">
         <v>44300</v>
@@ -5705,7 +5699,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B344" s="1">
         <v>44301</v>
@@ -5719,7 +5713,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B345" s="1">
         <v>44302</v>
@@ -5733,7 +5727,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B346" s="1">
         <v>44303</v>
@@ -5747,7 +5741,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B347" s="1">
         <v>44304</v>
@@ -5761,7 +5755,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B348" s="1">
         <v>44305</v>
@@ -5775,7 +5769,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B349" s="1">
         <v>44306</v>
@@ -5789,7 +5783,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B350" s="1">
         <v>44307</v>
@@ -5803,7 +5797,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B351" s="1">
         <v>44308</v>
@@ -5817,7 +5811,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B352" s="1">
         <v>44309</v>
@@ -5831,7 +5825,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B353" s="1">
         <v>44310</v>
@@ -5845,7 +5839,7 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B354" s="1">
         <v>44311</v>
@@ -5859,7 +5853,7 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B355" s="1">
         <v>44312</v>
@@ -5873,7 +5867,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B356" s="1">
         <v>44313</v>
@@ -5887,7 +5881,7 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B357" s="1">
         <v>44314</v>
@@ -5901,7 +5895,7 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B358" s="1">
         <v>44315</v>
@@ -5915,7 +5909,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B359" s="1">
         <v>44316</v>
@@ -5929,7 +5923,7 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B360" s="1">
         <v>44317</v>
@@ -5943,7 +5937,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B361" s="1">
         <v>44318</v>
@@ -5957,7 +5951,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B362" s="1">
         <v>44319</v>
@@ -5971,7 +5965,7 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B363" s="1">
         <v>44320</v>
@@ -5985,7 +5979,7 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B364" s="1">
         <v>44321</v>
@@ -5999,7 +5993,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B365" s="1">
         <v>44322</v>
@@ -6013,7 +6007,7 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B366" s="1">
         <v>44323</v>
@@ -6027,7 +6021,7 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B367" s="1">
         <v>44324</v>
@@ -6041,7 +6035,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B368" s="1">
         <v>44325</v>
@@ -6055,7 +6049,7 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B369" s="1">
         <v>44326</v>
@@ -6069,7 +6063,7 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B370" s="1">
         <v>44327</v>
@@ -6083,7 +6077,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B371" s="1">
         <v>44328</v>
@@ -6097,7 +6091,7 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B372" s="1">
         <v>44329</v>
@@ -6111,7 +6105,7 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B373" s="1">
         <v>44330</v>
@@ -6125,7 +6119,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B374" s="1">
         <v>44331</v>
@@ -6139,7 +6133,7 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B375" s="1">
         <v>44332</v>
@@ -6153,7 +6147,7 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B376" s="1">
         <v>44333</v>
@@ -6167,7 +6161,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B377" s="1">
         <v>44334</v>
@@ -6181,7 +6175,7 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B378" s="1">
         <v>44335</v>
@@ -6195,7 +6189,7 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B379" s="1">
         <v>44336</v>
@@ -6209,7 +6203,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B380" s="1">
         <v>44337</v>
@@ -6223,7 +6217,7 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B381" s="1">
         <v>44338</v>
@@ -6237,7 +6231,7 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B382" s="1">
         <v>44339</v>
@@ -6251,7 +6245,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B383" s="1">
         <v>44340</v>
@@ -6265,7 +6259,7 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B384" s="1">
         <v>44341</v>
@@ -6279,7 +6273,7 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B385" s="1">
         <v>44342</v>
@@ -6293,7 +6287,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B386" s="1">
         <v>44343</v>
@@ -6307,7 +6301,7 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B387" s="1">
         <v>44344</v>
@@ -6321,7 +6315,7 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B388" s="1">
         <v>44345</v>
@@ -6335,7 +6329,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B389" s="1">
         <v>44346</v>
@@ -6349,7 +6343,7 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B390" s="1">
         <v>44347</v>
@@ -6363,7 +6357,7 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B391" s="1">
         <v>44348</v>
@@ -6377,7 +6371,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B392" s="1">
         <v>44349</v>
@@ -6391,7 +6385,7 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B393" s="1">
         <v>44350</v>
@@ -6405,7 +6399,7 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B394" s="1">
         <v>44351</v>
@@ -6419,7 +6413,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B395" s="1">
         <v>44352</v>
@@ -6433,7 +6427,7 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B396" s="1">
         <v>44353</v>
@@ -6447,7 +6441,7 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B397" s="1">
         <v>44354</v>
@@ -6461,7 +6455,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B398" s="1">
         <v>44355</v>
@@ -6475,7 +6469,7 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B399" s="1">
         <v>44356</v>
@@ -6489,7 +6483,7 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B400" s="1">
         <v>44357</v>
@@ -6503,7 +6497,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B401" s="1">
         <v>44358</v>
@@ -6517,7 +6511,7 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B402" s="1">
         <v>44359</v>
@@ -6531,7 +6525,7 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B403" s="1">
         <v>44360</v>
@@ -6545,7 +6539,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B404" s="1">
         <v>44361</v>
@@ -6559,7 +6553,7 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B405" s="1">
         <v>44362</v>
@@ -6573,7 +6567,7 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B406" s="1">
         <v>44363</v>
@@ -6587,7 +6581,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B407" s="1">
         <v>44364</v>
@@ -6601,7 +6595,7 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B408" s="1">
         <v>44365</v>
@@ -6615,7 +6609,7 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B409" s="1">
         <v>44366</v>
@@ -6629,7 +6623,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B410" s="1">
         <v>44367</v>
@@ -6643,7 +6637,7 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B411" s="1">
         <v>44368</v>
@@ -6657,7 +6651,7 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B412" s="1">
         <v>44369</v>
@@ -6671,7 +6665,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B413" s="1">
         <v>44370</v>
@@ -6685,7 +6679,7 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B414" s="1">
         <v>44371</v>
@@ -6699,7 +6693,7 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B415" s="1">
         <v>44372</v>
@@ -6713,7 +6707,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B416" s="1">
         <v>44373</v>
@@ -6727,7 +6721,7 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B417" s="1">
         <v>44374</v>
@@ -6741,7 +6735,7 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B418" s="1">
         <v>44375</v>
@@ -6755,7 +6749,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B419" s="1">
         <v>44376</v>
@@ -6769,7 +6763,7 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B420" s="1">
         <v>44377</v>
@@ -6783,7 +6777,7 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B421" s="1">
         <v>44378</v>
@@ -6797,7 +6791,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B422" s="1">
         <v>44379</v>
@@ -6811,7 +6805,7 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B423" s="1">
         <v>44380</v>
@@ -6825,7 +6819,7 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B424" s="1">
         <v>44381</v>
@@ -6839,7 +6833,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B425" s="1">
         <v>44382</v>
@@ -6853,7 +6847,7 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B426" s="1">
         <v>44383</v>
@@ -6867,7 +6861,7 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B427" s="1">
         <v>44384</v>
@@ -6881,7 +6875,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B428" s="1">
         <v>44385</v>
@@ -6895,7 +6889,7 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B429" s="1">
         <v>44386</v>
@@ -6909,7 +6903,7 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B430" s="1">
         <v>44387</v>
@@ -6923,7 +6917,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B431" s="1">
         <v>44388</v>
@@ -6937,7 +6931,7 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B432" s="1">
         <v>44389</v>
@@ -6951,7 +6945,7 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B433" s="1">
         <v>44390</v>
@@ -6965,7 +6959,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B434" s="1">
         <v>44391</v>
@@ -6979,7 +6973,7 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B435" s="1">
         <v>44392</v>
@@ -6993,7 +6987,7 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B436" s="1">
         <v>44393</v>
@@ -7007,7 +7001,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B437" s="1">
         <v>44394</v>
@@ -7021,7 +7015,7 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B438" s="1">
         <v>44395</v>
@@ -7035,7 +7029,7 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B439" s="1">
         <v>44396</v>
@@ -7049,7 +7043,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B440" s="1">
         <v>44397</v>
@@ -7063,7 +7057,7 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B441" s="1">
         <v>44398</v>
@@ -7077,7 +7071,7 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B442" s="1">
         <v>44399</v>
@@ -7091,7 +7085,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B443" s="1">
         <v>44400</v>
@@ -7105,7 +7099,7 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B444" s="1">
         <v>44401</v>
@@ -7119,7 +7113,7 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B445" s="1">
         <v>44402</v>
@@ -7133,7 +7127,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B446" s="1">
         <v>44403</v>
@@ -7147,7 +7141,7 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B447" s="1">
         <v>44404</v>
@@ -7161,7 +7155,7 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B448" s="1">
         <v>44405</v>
@@ -7175,7 +7169,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B449" s="1">
         <v>44406</v>
@@ -7189,7 +7183,7 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B450" s="1">
         <v>44407</v>
@@ -7203,7 +7197,7 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B451" s="1">
         <v>44408</v>
@@ -7217,7 +7211,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B452" s="1">
         <v>44409</v>
@@ -7231,7 +7225,7 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B453" s="1">
         <v>44410</v>
@@ -7245,7 +7239,7 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B454" s="1">
         <v>44411</v>
@@ -7259,7 +7253,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B455" s="1">
         <v>44412</v>
@@ -7273,7 +7267,7 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B456" s="1">
         <v>44413</v>
@@ -7287,7 +7281,7 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B457" s="1">
         <v>44414</v>
@@ -7301,7 +7295,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B458" s="1">
         <v>44415</v>
@@ -7315,7 +7309,7 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B459" s="1">
         <v>44416</v>
@@ -7329,7 +7323,7 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B460" s="1">
         <v>44417</v>
@@ -7343,7 +7337,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B461" s="1">
         <v>44418</v>
@@ -7357,7 +7351,7 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B462" s="1">
         <v>44419</v>
@@ -7371,7 +7365,7 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B463" s="1">
         <v>44420</v>
@@ -7385,7 +7379,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B464" s="1">
         <v>44421</v>
@@ -7399,7 +7393,7 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B465" s="1">
         <v>44422</v>
@@ -7413,7 +7407,7 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B466" s="1">
         <v>44423</v>
@@ -7427,7 +7421,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B467" s="1">
         <v>44424</v>
@@ -7441,7 +7435,7 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B468" s="1">
         <v>44425</v>
@@ -7455,7 +7449,7 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B469" s="1">
         <v>44426</v>
@@ -7469,7 +7463,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B470" s="1">
         <v>44427</v>
@@ -7483,7 +7477,7 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B471" s="1">
         <v>44428</v>
@@ -7497,7 +7491,7 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B472" s="1">
         <v>44429</v>
@@ -7511,7 +7505,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B473" s="1">
         <v>44430</v>
@@ -7525,7 +7519,7 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B474" s="1">
         <v>44431</v>
@@ -7539,7 +7533,7 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B475" s="1">
         <v>44432</v>
@@ -7553,7 +7547,7 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B476" s="1">
         <v>44433</v>
@@ -7567,7 +7561,7 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B477" s="1">
         <v>44434</v>
@@ -7581,7 +7575,7 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B478" s="1">
         <v>44435</v>
@@ -7595,7 +7589,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B479" s="1">
         <v>44436</v>
@@ -7609,7 +7603,7 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B480" s="1">
         <v>44437</v>
@@ -7623,7 +7617,7 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B481" s="1">
         <v>44438</v>
@@ -7637,7 +7631,7 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B482" s="1">
         <v>44439</v>
@@ -7651,7 +7645,7 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B483" s="1">
         <v>44440</v>
@@ -7665,7 +7659,7 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B484" s="1">
         <v>44441</v>
@@ -7679,7 +7673,7 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B485" s="1">
         <v>44442</v>
@@ -7693,7 +7687,7 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B486" s="1">
         <v>44443</v>
@@ -7707,7 +7701,7 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B487" s="1">
         <v>44444</v>
@@ -7721,7 +7715,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B488" s="1">
         <v>44445</v>
@@ -7735,7 +7729,7 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B489" s="1">
         <v>44446</v>
@@ -7749,7 +7743,7 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B490" s="1">
         <v>44447</v>
@@ -7763,7 +7757,7 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B491" s="1">
         <v>44448</v>
@@ -7777,7 +7771,7 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B492" s="1">
         <v>44449</v>
@@ -7791,7 +7785,7 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B493" s="1">
         <v>44450</v>
@@ -7805,7 +7799,7 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B494" s="1">
         <v>44451</v>
@@ -7819,7 +7813,7 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B495" s="1">
         <v>44452</v>
@@ -7833,7 +7827,7 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B496" s="1">
         <v>44453</v>
@@ -7847,7 +7841,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B497" s="1">
         <v>44454</v>
@@ -7861,7 +7855,7 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B498" s="1">
         <v>44455</v>
@@ -7875,7 +7869,7 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B499" s="1">
         <v>44456</v>
@@ -7889,7 +7883,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B500" s="1">
         <v>44457</v>
@@ -7903,7 +7897,7 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B501" s="1">
         <v>44458</v>
@@ -7917,7 +7911,7 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B502" s="1">
         <v>44459</v>
@@ -7931,7 +7925,7 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B503" s="1">
         <v>44460</v>
@@ -7945,7 +7939,7 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B504" s="1">
         <v>44461</v>
@@ -7959,7 +7953,7 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B505" s="1">
         <v>44462</v>
@@ -7973,7 +7967,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B506" s="1">
         <v>44463</v>
@@ -7987,7 +7981,7 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B507" s="1">
         <v>44464</v>
@@ -8001,7 +7995,7 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B508" s="1">
         <v>44465</v>
@@ -8015,7 +8009,7 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B509" s="1">
         <v>44466</v>
@@ -8029,7 +8023,7 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B510" s="1">
         <v>44467</v>
@@ -8043,7 +8037,7 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B511" s="1">
         <v>44468</v>
@@ -8057,7 +8051,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B512" s="1">
         <v>44469</v>
@@ -8071,7 +8065,7 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B513" s="1">
         <v>44470</v>
@@ -8085,7 +8079,7 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B514" s="1">
         <v>44471</v>
@@ -8099,7 +8093,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B515" s="1">
         <v>44472</v>
@@ -8113,7 +8107,7 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B516" s="1">
         <v>44473</v>
@@ -8127,7 +8121,7 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B517" s="1">
         <v>44474</v>
@@ -8141,7 +8135,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B518" s="1">
         <v>44475</v>
@@ -8155,7 +8149,7 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B519" s="1">
         <v>44476</v>
@@ -8169,7 +8163,7 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B520" s="1">
         <v>44477</v>
@@ -8183,7 +8177,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B521" s="1">
         <v>44478</v>
@@ -8197,7 +8191,7 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B522" s="1">
         <v>44479</v>
@@ -8211,7 +8205,7 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B523" s="1">
         <v>44480</v>
@@ -8225,7 +8219,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B524" s="1">
         <v>44481</v>
@@ -8239,7 +8233,7 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B525" s="1">
         <v>44482</v>
@@ -8253,7 +8247,7 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B526" s="1">
         <v>44483</v>
@@ -8267,7 +8261,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B527" s="1">
         <v>44484</v>
@@ -8281,7 +8275,7 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B528" s="1">
         <v>44485</v>
@@ -8295,7 +8289,7 @@
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B529" s="1">
         <v>44486</v>
@@ -8309,7 +8303,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B530" s="1">
         <v>44487</v>
@@ -8323,7 +8317,7 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B531" s="1">
         <v>44488</v>
@@ -8337,7 +8331,7 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B532" s="1">
         <v>44489</v>
@@ -8351,7 +8345,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B533" s="1">
         <v>44490</v>
@@ -8365,7 +8359,7 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B534" s="1">
         <v>44491</v>
@@ -8379,7 +8373,7 @@
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B535" s="1">
         <v>44492</v>
@@ -8393,7 +8387,7 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B536" s="1">
         <v>44493</v>
@@ -8407,7 +8401,7 @@
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B537" s="1">
         <v>44494</v>
@@ -8421,7 +8415,7 @@
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B538" s="1">
         <v>44495</v>
@@ -8435,7 +8429,7 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B539" s="1">
         <v>44496</v>
@@ -8449,7 +8443,7 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B540" s="1">
         <v>44497</v>
@@ -8463,7 +8457,7 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B541" s="1">
         <v>44498</v>
@@ -8477,7 +8471,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B542" s="1">
         <v>44499</v>
@@ -8491,7 +8485,7 @@
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B543" s="1">
         <v>44500</v>
@@ -8505,7 +8499,7 @@
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B544" s="1">
         <v>44501</v>
@@ -8519,7 +8513,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B545" s="1">
         <v>44502</v>
@@ -8533,7 +8527,7 @@
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B546" s="1">
         <v>44503</v>
@@ -8547,7 +8541,7 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B547" s="1">
         <v>44504</v>
@@ -8561,7 +8555,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B548" s="1">
         <v>44505</v>
@@ -8575,7 +8569,7 @@
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B549" s="1">
         <v>44506</v>
@@ -8589,7 +8583,7 @@
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B550" s="1">
         <v>44507</v>
@@ -8603,7 +8597,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B551" s="1">
         <v>44508</v>
@@ -8617,7 +8611,7 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B552" s="1">
         <v>44509</v>
@@ -8631,7 +8625,7 @@
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B553" s="1">
         <v>44510</v>
@@ -8645,7 +8639,7 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B554" s="1">
         <v>44511</v>
@@ -8659,7 +8653,7 @@
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B555" s="1">
         <v>44512</v>
@@ -8673,7 +8667,7 @@
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B556" s="1">
         <v>44513</v>
@@ -8687,7 +8681,7 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B557" s="1">
         <v>44514</v>
@@ -8701,7 +8695,7 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B558" s="1">
         <v>44515</v>
@@ -8715,7 +8709,7 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B559" s="1">
         <v>44516</v>
@@ -8729,7 +8723,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B560" s="1">
         <v>44517</v>
@@ -8743,7 +8737,7 @@
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B561" s="1">
         <v>44518</v>
@@ -8757,7 +8751,7 @@
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B562" s="1">
         <v>44519</v>
@@ -8771,7 +8765,7 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B563" s="1">
         <v>44520</v>
@@ -8785,7 +8779,7 @@
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B564" s="1">
         <v>44521</v>
@@ -8799,7 +8793,7 @@
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B565" s="1">
         <v>44522</v>
@@ -8813,7 +8807,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B566" s="1">
         <v>44523</v>
@@ -8827,7 +8821,7 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B567" s="1">
         <v>44524</v>
@@ -8841,7 +8835,7 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B568" s="1">
         <v>44525</v>
@@ -8855,7 +8849,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B569" s="1">
         <v>44526</v>
@@ -8869,7 +8863,7 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B570" s="1">
         <v>44527</v>
@@ -8883,7 +8877,7 @@
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B571" s="1">
         <v>44528</v>
@@ -8897,7 +8891,7 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B572" s="1">
         <v>44529</v>
@@ -8911,7 +8905,7 @@
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B573" s="1">
         <v>44530</v>
@@ -8925,7 +8919,7 @@
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B574" s="1">
         <v>44531</v>
@@ -8939,7 +8933,7 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B575" s="1">
         <v>44532</v>
@@ -8953,7 +8947,7 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B576" s="1">
         <v>44533</v>
@@ -8967,7 +8961,7 @@
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B577" s="1">
         <v>44534</v>
@@ -8981,7 +8975,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B578" s="1">
         <v>44535</v>
@@ -8995,7 +8989,7 @@
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B579" s="1">
         <v>44536</v>
@@ -9009,7 +9003,7 @@
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B580" s="1">
         <v>44537</v>
@@ -9023,7 +9017,7 @@
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B581" s="1">
         <v>44538</v>
@@ -9037,7 +9031,7 @@
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B582" s="1">
         <v>44539</v>
@@ -9051,7 +9045,7 @@
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B583" s="1">
         <v>44540</v>
@@ -9065,7 +9059,7 @@
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B584" s="1">
         <v>44541</v>
@@ -9079,7 +9073,7 @@
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B585" s="1">
         <v>44542</v>
@@ -9093,7 +9087,7 @@
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B586" s="1">
         <v>44543</v>
@@ -9107,7 +9101,7 @@
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B587" s="1">
         <v>44544</v>
@@ -9121,7 +9115,7 @@
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B588" s="1">
         <v>44545</v>
@@ -9135,7 +9129,7 @@
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B589" s="1">
         <v>44546</v>
@@ -9149,7 +9143,7 @@
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B590" s="1">
         <v>44547</v>
@@ -9163,7 +9157,7 @@
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B591" s="1">
         <v>44548</v>
@@ -9177,7 +9171,7 @@
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B592" s="1">
         <v>44549</v>
@@ -9191,7 +9185,7 @@
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B593" s="1">
         <v>44550</v>
@@ -9205,7 +9199,7 @@
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B594" s="1">
         <v>44551</v>
@@ -9219,7 +9213,7 @@
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B595" s="1">
         <v>44552</v>
@@ -9233,7 +9227,7 @@
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B596" s="1">
         <v>44553</v>
@@ -9247,7 +9241,7 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B597" s="1">
         <v>44554</v>
@@ -9261,7 +9255,7 @@
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B598" s="1">
         <v>44555</v>
@@ -9275,7 +9269,7 @@
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B599" s="1">
         <v>44556</v>
@@ -9289,7 +9283,7 @@
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B600" s="1">
         <v>44557</v>
@@ -9303,7 +9297,7 @@
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B601" s="1">
         <v>44558</v>
@@ -9317,7 +9311,7 @@
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B602" s="1">
         <v>44559</v>
@@ -9331,7 +9325,7 @@
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B603" s="1">
         <v>44560</v>
@@ -9345,7 +9339,7 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B604" s="1">
         <v>44561</v>
@@ -9359,7 +9353,7 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B605" s="1">
         <v>44562</v>
@@ -9373,7 +9367,7 @@
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B606" s="1">
         <v>44563</v>
@@ -9387,7 +9381,7 @@
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B607" s="1">
         <v>44564</v>
@@ -9401,7 +9395,7 @@
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B608" s="1">
         <v>44565</v>
@@ -9415,7 +9409,7 @@
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B609" s="1">
         <v>44566</v>
@@ -9429,7 +9423,7 @@
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B610" s="1">
         <v>44567</v>
@@ -9443,7 +9437,7 @@
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B611" s="1">
         <v>44568</v>
@@ -9457,7 +9451,7 @@
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B612" s="1">
         <v>44569</v>
@@ -9471,7 +9465,7 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B613" s="1">
         <v>44570</v>
@@ -9485,7 +9479,7 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B614" s="1">
         <v>44571</v>
@@ -9499,7 +9493,7 @@
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B615" s="1">
         <v>44572</v>
@@ -9513,7 +9507,7 @@
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B616" s="1">
         <v>44573</v>
@@ -9527,7 +9521,7 @@
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B617" s="1">
         <v>44574</v>
@@ -9541,7 +9535,7 @@
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B618" s="1">
         <v>44575</v>
@@ -9555,7 +9549,7 @@
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B619" s="1">
         <v>44576</v>
@@ -9569,7 +9563,7 @@
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B620" s="1">
         <v>44577</v>
@@ -9583,7 +9577,7 @@
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B621" s="1">
         <v>44578</v>
@@ -9597,7 +9591,7 @@
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B622" s="1">
         <v>44579</v>
@@ -9611,7 +9605,7 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B623" s="1">
         <v>44580</v>
@@ -9625,7 +9619,7 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B624" s="1">
         <v>44581</v>
@@ -9639,7 +9633,7 @@
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B625" s="1">
         <v>44582</v>
@@ -9653,7 +9647,7 @@
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B626" s="1">
         <v>44583</v>
@@ -9667,7 +9661,7 @@
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B627" s="1">
         <v>44584</v>
@@ -9681,7 +9675,7 @@
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B628" s="1">
         <v>44585</v>
@@ -9695,7 +9689,7 @@
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B629" s="1">
         <v>44586</v>
@@ -9709,7 +9703,7 @@
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B630" s="1">
         <v>44587</v>
@@ -9723,7 +9717,7 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B631" s="1">
         <v>44588</v>
@@ -9737,7 +9731,7 @@
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B632" s="1">
         <v>44589</v>
@@ -9751,7 +9745,7 @@
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B633" s="1">
         <v>44590</v>
@@ -9765,7 +9759,7 @@
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B634" s="1">
         <v>44591</v>
@@ -9779,7 +9773,7 @@
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B635" s="1">
         <v>44592</v>
@@ -9793,7 +9787,7 @@
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B636" s="1">
         <v>44593</v>
@@ -9807,7 +9801,7 @@
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B637" s="1">
         <v>44594</v>
@@ -9821,7 +9815,7 @@
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B638" s="1">
         <v>44595</v>
@@ -9835,7 +9829,7 @@
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B639" s="1">
         <v>44596</v>
@@ -9849,7 +9843,7 @@
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B640" s="1">
         <v>44597</v>
@@ -9863,7 +9857,7 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B641" s="1">
         <v>44598</v>
@@ -9877,7 +9871,7 @@
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B642" s="1">
         <v>44599</v>
@@ -9891,7 +9885,7 @@
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B643" s="1">
         <v>44600</v>
@@ -9905,7 +9899,7 @@
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B644" s="1">
         <v>44601</v>
@@ -9919,7 +9913,7 @@
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B645" s="1">
         <v>44602</v>
@@ -9933,7 +9927,7 @@
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B646" s="1">
         <v>44603</v>
@@ -9947,7 +9941,7 @@
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B647" s="1">
         <v>44604</v>
@@ -9961,7 +9955,7 @@
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B648" s="1">
         <v>44605</v>
@@ -9975,7 +9969,7 @@
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B649" s="1">
         <v>44606</v>
@@ -9989,7 +9983,7 @@
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B650" s="1">
         <v>44607</v>
@@ -10003,7 +9997,7 @@
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B651" s="1">
         <v>44608</v>
@@ -10017,7 +10011,7 @@
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B652" s="1">
         <v>44609</v>
@@ -10031,7 +10025,7 @@
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B653" s="1">
         <v>44610</v>
@@ -10045,7 +10039,7 @@
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B654" s="1">
         <v>44611</v>
@@ -10059,7 +10053,7 @@
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B655" s="1">
         <v>44612</v>
@@ -10073,7 +10067,7 @@
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B656" s="1">
         <v>44613</v>
@@ -10087,7 +10081,7 @@
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B657" s="1">
         <v>44614</v>
@@ -10101,7 +10095,7 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B658" s="1">
         <v>44615</v>
@@ -10115,7 +10109,7 @@
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B659" s="1">
         <v>44616</v>
@@ -10129,7 +10123,7 @@
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B660" s="1">
         <v>44617</v>
@@ -10143,7 +10137,7 @@
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B661" s="1">
         <v>44618</v>
@@ -10157,7 +10151,7 @@
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B662" s="1">
         <v>44619</v>
@@ -10171,7 +10165,7 @@
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B663" s="1">
         <v>44620</v>
@@ -10185,7 +10179,7 @@
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B664" s="1">
         <v>44621</v>
@@ -10199,7 +10193,7 @@
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B665" s="1">
         <v>44622</v>
@@ -10213,7 +10207,7 @@
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B666" s="1">
         <v>44623</v>
@@ -10227,7 +10221,7 @@
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B667" s="1">
         <v>44624</v>
@@ -10241,7 +10235,7 @@
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B668" s="1">
         <v>44625</v>
@@ -10255,7 +10249,7 @@
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B669" s="1">
         <v>44626</v>
@@ -10269,7 +10263,7 @@
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B670" s="1">
         <v>44627</v>
@@ -10283,7 +10277,7 @@
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B671" s="1">
         <v>44628</v>
@@ -10297,7 +10291,7 @@
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B672" s="1">
         <v>44629</v>
@@ -10311,7 +10305,7 @@
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B673" s="1">
         <v>44630</v>
@@ -10325,7 +10319,7 @@
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B674" s="1">
         <v>44631</v>
@@ -10339,7 +10333,7 @@
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B675" s="1">
         <v>44632</v>
@@ -10353,7 +10347,7 @@
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B676" s="1">
         <v>44633</v>
@@ -10367,7 +10361,7 @@
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B677" s="1">
         <v>44634</v>
@@ -10381,7 +10375,7 @@
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B678" s="1">
         <v>44635</v>
@@ -10395,7 +10389,7 @@
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B679" s="1">
         <v>44636</v>
@@ -10409,7 +10403,7 @@
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B680" s="1">
         <v>44637</v>
@@ -10423,7 +10417,7 @@
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B681" s="1">
         <v>44638</v>
@@ -10437,7 +10431,7 @@
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B682" s="1">
         <v>44639</v>
@@ -10451,7 +10445,7 @@
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B683" s="1">
         <v>44640</v>
@@ -10465,7 +10459,7 @@
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B684" s="1">
         <v>44641</v>
@@ -10479,7 +10473,7 @@
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B685" s="1">
         <v>44642</v>
@@ -10493,7 +10487,7 @@
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B686" s="1">
         <v>44643</v>
@@ -10507,7 +10501,7 @@
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B687" s="1">
         <v>44644</v>
@@ -10521,7 +10515,7 @@
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B688" s="1">
         <v>44645</v>
@@ -10535,7 +10529,7 @@
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B689" s="1">
         <v>44646</v>
@@ -10549,7 +10543,7 @@
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B690" s="1">
         <v>44647</v>
@@ -10563,7 +10557,7 @@
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B691" s="1">
         <v>44648</v>
@@ -10577,7 +10571,7 @@
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B692" s="1">
         <v>44649</v>
@@ -10591,7 +10585,7 @@
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B693" s="1">
         <v>44650</v>
@@ -10605,7 +10599,7 @@
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B694" s="1">
         <v>44651</v>
@@ -10619,7 +10613,7 @@
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B695" s="1">
         <v>44652</v>
@@ -10633,7 +10627,7 @@
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B696" s="1">
         <v>44653</v>
@@ -10647,7 +10641,7 @@
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B697" s="1">
         <v>44654</v>
@@ -10661,7 +10655,7 @@
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B698" s="1">
         <v>44655</v>
@@ -10675,7 +10669,7 @@
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B699" s="1">
         <v>44656</v>
@@ -10689,7 +10683,7 @@
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B700" s="1">
         <v>44657</v>
@@ -10703,7 +10697,7 @@
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B701" s="1">
         <v>44658</v>
@@ -10717,7 +10711,7 @@
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B702" s="1">
         <v>44659</v>
@@ -10731,7 +10725,7 @@
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B703" s="1">
         <v>44660</v>
@@ -10745,7 +10739,7 @@
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B704" s="1">
         <v>44661</v>
@@ -10759,7 +10753,7 @@
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B705" s="1">
         <v>44662</v>
@@ -10773,7 +10767,7 @@
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B706" s="1">
         <v>44663</v>
@@ -10787,7 +10781,7 @@
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B707" s="1">
         <v>44664</v>
@@ -10801,7 +10795,7 @@
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B708" s="1">
         <v>44665</v>
@@ -10815,7 +10809,7 @@
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B709" s="1">
         <v>44666</v>
@@ -10829,7 +10823,7 @@
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B710" s="1">
         <v>44667</v>
@@ -10843,7 +10837,7 @@
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B711" s="1">
         <v>44668</v>
@@ -10857,7 +10851,7 @@
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B712" s="1">
         <v>44669</v>
@@ -10871,7 +10865,7 @@
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B713" s="1">
         <v>44670</v>
@@ -10885,7 +10879,7 @@
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B714" s="1">
         <v>44671</v>
@@ -10899,7 +10893,7 @@
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B715" s="1">
         <v>44672</v>
@@ -10913,7 +10907,7 @@
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B716" s="1">
         <v>44673</v>
@@ -10927,7 +10921,7 @@
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B717" s="1">
         <v>44674</v>
@@ -10941,7 +10935,7 @@
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B718" s="1">
         <v>44675</v>
@@ -10955,7 +10949,7 @@
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B719" s="1">
         <v>44676</v>
@@ -10969,7 +10963,7 @@
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B720" s="1">
         <v>44677</v>
@@ -10983,7 +10977,7 @@
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B721" s="1">
         <v>44678</v>
@@ -10997,7 +10991,7 @@
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B722" s="1">
         <v>44679</v>
@@ -11011,7 +11005,7 @@
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B723" s="1">
         <v>44680</v>
@@ -11025,7 +11019,7 @@
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B724" s="1">
         <v>44681</v>
@@ -11039,7 +11033,7 @@
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B725" s="1">
         <v>44682</v>
@@ -11053,7 +11047,7 @@
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B726" s="1">
         <v>44683</v>
@@ -11067,7 +11061,7 @@
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B727" s="1">
         <v>44684</v>
@@ -11081,7 +11075,7 @@
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B728" s="1">
         <v>44685</v>
@@ -11095,7 +11089,7 @@
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B729" s="1">
         <v>44686</v>
@@ -11109,7 +11103,7 @@
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B730" s="1">
         <v>44687</v>
@@ -11123,7 +11117,7 @@
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B731" s="1">
         <v>44688</v>
@@ -11137,7 +11131,7 @@
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B732" s="1">
         <v>44689</v>
@@ -11151,7 +11145,7 @@
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B733" s="1">
         <v>44690</v>
@@ -11165,7 +11159,7 @@
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B734" s="1">
         <v>44691</v>
@@ -11179,7 +11173,7 @@
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B735" s="1">
         <v>44692</v>
@@ -11193,7 +11187,7 @@
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B736" s="1">
         <v>44693</v>
@@ -11207,7 +11201,7 @@
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B737" s="1">
         <v>44694</v>
@@ -11221,7 +11215,7 @@
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B738" s="1">
         <v>44695</v>
@@ -11235,7 +11229,7 @@
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B739" s="1">
         <v>44696</v>
@@ -11249,7 +11243,7 @@
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B740" s="1">
         <v>44697</v>
@@ -11263,7 +11257,7 @@
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B741" s="1">
         <v>44698</v>
@@ -11277,7 +11271,7 @@
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B742" s="1">
         <v>44699</v>
@@ -11291,7 +11285,7 @@
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B743" s="1">
         <v>44700</v>
@@ -11305,7 +11299,7 @@
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B744" s="1">
         <v>44701</v>
@@ -11319,7 +11313,7 @@
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B745" s="1">
         <v>44702</v>
@@ -11333,7 +11327,7 @@
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B746" s="1">
         <v>44703</v>
@@ -11347,7 +11341,7 @@
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B747" s="1">
         <v>44704</v>
@@ -11361,7 +11355,7 @@
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B748" s="1">
         <v>44705</v>
@@ -11375,7 +11369,7 @@
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B749" s="1">
         <v>44706</v>
@@ -11389,7 +11383,7 @@
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B750" s="1">
         <v>44707</v>
@@ -11403,7 +11397,7 @@
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B751" s="1">
         <v>44708</v>
@@ -11417,7 +11411,7 @@
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B752" s="1">
         <v>44709</v>
@@ -11431,7 +11425,7 @@
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B753" s="1">
         <v>44710</v>
@@ -11445,7 +11439,7 @@
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B754" s="1">
         <v>44711</v>
@@ -11459,7 +11453,7 @@
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B755" s="1">
         <v>44712</v>
@@ -11473,7 +11467,7 @@
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B756" s="1">
         <v>44713</v>
@@ -11487,7 +11481,7 @@
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B757" s="1">
         <v>44714</v>
@@ -11501,7 +11495,7 @@
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B758" s="1">
         <v>44715</v>
@@ -11515,7 +11509,7 @@
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B759" s="1">
         <v>44716</v>
@@ -11529,7 +11523,7 @@
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B760" s="1">
         <v>44717</v>
@@ -11543,7 +11537,7 @@
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B761" s="1">
         <v>44718</v>
@@ -11557,7 +11551,7 @@
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B762" s="1">
         <v>44719</v>
@@ -11571,7 +11565,7 @@
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B763" s="1">
         <v>44720</v>
@@ -11585,7 +11579,7 @@
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B764" s="1">
         <v>44721</v>
@@ -11599,7 +11593,7 @@
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B765" s="1">
         <v>44722</v>
@@ -11613,7 +11607,7 @@
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B766" s="1">
         <v>44723</v>
@@ -11627,7 +11621,7 @@
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B767" s="1">
         <v>44724</v>
@@ -11641,7 +11635,7 @@
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B768" s="1">
         <v>44725</v>
@@ -11655,7 +11649,7 @@
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B769" s="1">
         <v>44726</v>
@@ -11669,7 +11663,7 @@
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B770" s="1">
         <v>44727</v>
@@ -11683,7 +11677,7 @@
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B771" s="1">
         <v>44728</v>
@@ -11697,7 +11691,7 @@
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B772" s="1">
         <v>44729</v>
@@ -11711,7 +11705,7 @@
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B773" s="1">
         <v>44730</v>
@@ -11725,7 +11719,7 @@
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B774" s="1">
         <v>44731</v>
@@ -11739,7 +11733,7 @@
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B775" s="1">
         <v>44732</v>
@@ -11753,7 +11747,7 @@
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B776" s="1">
         <v>44733</v>
@@ -11767,7 +11761,7 @@
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B777" s="1">
         <v>44734</v>
@@ -11781,7 +11775,7 @@
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B778" s="1">
         <v>44735</v>
@@ -11795,7 +11789,7 @@
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B779" s="1">
         <v>44736</v>
@@ -11809,7 +11803,7 @@
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B780" s="1">
         <v>44737</v>
@@ -11823,7 +11817,7 @@
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B781" s="1">
         <v>44738</v>
@@ -11837,7 +11831,7 @@
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B782" s="1">
         <v>44739</v>
@@ -11851,7 +11845,7 @@
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B783" s="1">
         <v>44740</v>
@@ -11865,7 +11859,7 @@
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B784" s="1">
         <v>44741</v>
@@ -11879,7 +11873,7 @@
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B785" s="1">
         <v>44742</v>
@@ -11893,7 +11887,7 @@
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B786" s="1">
         <v>44743</v>
@@ -11907,7 +11901,7 @@
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B787" s="1">
         <v>44744</v>
@@ -11921,7 +11915,7 @@
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B788" s="1">
         <v>44745</v>
@@ -11935,7 +11929,7 @@
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B789" s="1">
         <v>44746</v>
@@ -11949,7 +11943,7 @@
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B790" s="1">
         <v>44747</v>
@@ -11963,7 +11957,7 @@
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B791" s="1">
         <v>44748</v>
@@ -11977,7 +11971,7 @@
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B792" s="1">
         <v>44749</v>
@@ -11991,7 +11985,7 @@
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B793" s="1">
         <v>44750</v>
@@ -12005,7 +11999,7 @@
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B794" s="1">
         <v>44751</v>
@@ -12019,7 +12013,7 @@
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B795" s="1">
         <v>44752</v>
@@ -12033,7 +12027,7 @@
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B796" s="1">
         <v>44753</v>
@@ -12047,7 +12041,7 @@
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B797" s="1">
         <v>44754</v>
@@ -12061,7 +12055,7 @@
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B798" s="1">
         <v>44755</v>
@@ -12075,7 +12069,7 @@
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B799" s="1">
         <v>44756</v>
@@ -12089,7 +12083,7 @@
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B800" s="1">
         <v>44757</v>
@@ -12103,7 +12097,7 @@
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B801" s="1">
         <v>44758</v>
@@ -12117,7 +12111,7 @@
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B802" s="1">
         <v>44759</v>
@@ -12131,7 +12125,7 @@
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B803" s="1">
         <v>44760</v>
@@ -12145,7 +12139,7 @@
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B804" s="1">
         <v>44761</v>
@@ -12159,7 +12153,7 @@
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B805" s="1">
         <v>44762</v>
@@ -12173,7 +12167,7 @@
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B806" s="1">
         <v>44763</v>
@@ -12187,7 +12181,7 @@
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B807" s="1">
         <v>44764</v>
@@ -12201,7 +12195,7 @@
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B808" s="1">
         <v>44765</v>
@@ -12215,7 +12209,7 @@
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B809" s="1">
         <v>44766</v>
@@ -12229,7 +12223,7 @@
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B810" s="1">
         <v>44767</v>
@@ -12243,7 +12237,7 @@
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B811" s="1">
         <v>44768</v>
@@ -12257,7 +12251,7 @@
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B812" s="1">
         <v>44769</v>
@@ -12271,7 +12265,7 @@
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B813" s="1">
         <v>44770</v>
@@ -12285,7 +12279,7 @@
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B814" s="1">
         <v>44771</v>
@@ -12299,7 +12293,7 @@
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B815" s="1">
         <v>44772</v>
@@ -12313,7 +12307,7 @@
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B816" s="1">
         <v>44773</v>
@@ -12327,7 +12321,7 @@
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B817" s="1">
         <v>44774</v>
@@ -12341,7 +12335,7 @@
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B818" s="1">
         <v>44775</v>
@@ -12355,7 +12349,7 @@
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B819" s="1">
         <v>44776</v>
@@ -12369,7 +12363,7 @@
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B820" s="1">
         <v>44777</v>
@@ -12383,7 +12377,7 @@
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B821" s="1">
         <v>44778</v>
@@ -12397,7 +12391,7 @@
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B822" s="1">
         <v>44779</v>
@@ -12411,7 +12405,7 @@
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B823" s="1">
         <v>44780</v>
@@ -12425,7 +12419,7 @@
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B824" s="1">
         <v>44781</v>
@@ -12439,7 +12433,7 @@
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B825" s="1">
         <v>44782</v>
@@ -12453,7 +12447,7 @@
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B826" s="1">
         <v>44783</v>
@@ -12467,7 +12461,7 @@
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B827" s="1">
         <v>44784</v>
@@ -12481,7 +12475,7 @@
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B828" s="1">
         <v>44785</v>
@@ -12495,7 +12489,7 @@
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B829" s="1">
         <v>44786</v>
@@ -12509,7 +12503,7 @@
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B830" s="1">
         <v>44787</v>
@@ -12523,7 +12517,7 @@
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B831" s="1">
         <v>44788</v>
@@ -12537,7 +12531,7 @@
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B832" s="1">
         <v>44789</v>
@@ -12551,7 +12545,7 @@
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B833" s="1">
         <v>44790</v>
@@ -12565,7 +12559,7 @@
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B834" s="1">
         <v>44791</v>
@@ -12579,7 +12573,7 @@
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B835" s="1">
         <v>44792</v>
@@ -12593,7 +12587,7 @@
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B836" s="1">
         <v>44793</v>
@@ -12607,7 +12601,7 @@
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B837" s="1">
         <v>44794</v>
@@ -12621,7 +12615,7 @@
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B838" s="1">
         <v>44795</v>
@@ -12635,7 +12629,7 @@
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B839" s="1">
         <v>44796</v>
@@ -12649,7 +12643,7 @@
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B840" s="1">
         <v>44797</v>
@@ -12663,7 +12657,7 @@
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B841" s="1">
         <v>44798</v>
@@ -12677,7 +12671,7 @@
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B842" s="1">
         <v>44799</v>
@@ -12691,7 +12685,7 @@
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B843" s="1">
         <v>44800</v>
@@ -12705,7 +12699,7 @@
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B844" s="1">
         <v>44801</v>
@@ -12719,7 +12713,7 @@
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B845" s="1">
         <v>44802</v>
@@ -12733,7 +12727,7 @@
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B846" s="1">
         <v>44803</v>
@@ -12747,7 +12741,7 @@
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B847" s="1">
         <v>44804</v>
@@ -12761,7 +12755,7 @@
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B848" s="1">
         <v>44805</v>
@@ -12775,7 +12769,7 @@
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B849" s="1">
         <v>44806</v>
@@ -12789,7 +12783,7 @@
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B850" s="1">
         <v>44807</v>
@@ -12803,7 +12797,7 @@
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B851" s="1">
         <v>44808</v>
@@ -12817,7 +12811,7 @@
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B852" s="1">
         <v>44809</v>
@@ -12831,7 +12825,7 @@
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B853" s="1">
         <v>44810</v>
@@ -12845,7 +12839,7 @@
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B854" s="1">
         <v>44811</v>
@@ -12859,7 +12853,7 @@
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B855" s="1">
         <v>44812</v>
@@ -12873,7 +12867,7 @@
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B856" s="1">
         <v>44813</v>
@@ -12887,7 +12881,7 @@
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B857" s="1">
         <v>44814</v>
@@ -12901,7 +12895,7 @@
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B858" s="1">
         <v>44815</v>
@@ -12915,7 +12909,7 @@
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B859" s="1">
         <v>44816</v>
@@ -12929,7 +12923,7 @@
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B860" s="1">
         <v>44817</v>
@@ -12943,7 +12937,7 @@
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B861" s="1">
         <v>44818</v>
@@ -12957,7 +12951,7 @@
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B862" s="1">
         <v>44819</v>
@@ -12971,7 +12965,7 @@
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B863" s="1">
         <v>44820</v>
@@ -12985,7 +12979,7 @@
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B864" s="1">
         <v>44821</v>
@@ -12999,7 +12993,7 @@
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B865" s="1">
         <v>44822</v>
@@ -13013,7 +13007,7 @@
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B866" s="1">
         <v>44823</v>
@@ -13027,7 +13021,7 @@
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B867" s="1">
         <v>44824</v>
@@ -13041,7 +13035,7 @@
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B868" s="1">
         <v>44825</v>
@@ -13055,7 +13049,7 @@
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B869" s="1">
         <v>44826</v>
@@ -13069,7 +13063,7 @@
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B870" s="1">
         <v>44827</v>
@@ -13083,7 +13077,7 @@
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B871" s="1">
         <v>44828</v>
@@ -13097,7 +13091,7 @@
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B872" s="1">
         <v>44829</v>
@@ -13111,7 +13105,7 @@
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B873" s="1">
         <v>44830</v>
@@ -13125,7 +13119,7 @@
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B874" s="1">
         <v>44831</v>
@@ -13139,7 +13133,7 @@
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B875" s="1">
         <v>44832</v>
@@ -13153,7 +13147,7 @@
     </row>
     <row r="876" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B876" s="1">
         <v>44833</v>
@@ -13167,7 +13161,7 @@
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B877" s="1">
         <v>44834</v>
@@ -13181,7 +13175,7 @@
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B878" s="1">
         <v>44835</v>
@@ -13195,7 +13189,7 @@
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B879" s="1">
         <v>44836</v>
@@ -13209,7 +13203,7 @@
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B880" s="1">
         <v>44837</v>
@@ -13223,7 +13217,7 @@
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B881" s="1">
         <v>44838</v>
@@ -13237,7 +13231,7 @@
     </row>
     <row r="882" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B882" s="1">
         <v>44839</v>
@@ -13251,7 +13245,7 @@
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B883" s="1">
         <v>44840</v>
@@ -13265,7 +13259,7 @@
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B884" s="1">
         <v>44841</v>
@@ -13279,7 +13273,7 @@
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B885" s="1">
         <v>44842</v>
@@ -13293,7 +13287,7 @@
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B886" s="1">
         <v>44843</v>
@@ -13307,7 +13301,7 @@
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B887" s="1">
         <v>44844</v>
@@ -13321,7 +13315,7 @@
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B888" s="1">
         <v>44845</v>
@@ -13335,7 +13329,7 @@
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B889" s="1">
         <v>44846</v>
@@ -13349,7 +13343,7 @@
     </row>
     <row r="890" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B890" s="1">
         <v>44847</v>
@@ -13363,7 +13357,7 @@
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B891" s="1">
         <v>44848</v>
@@ -13377,7 +13371,7 @@
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B892" s="1">
         <v>44849</v>
@@ -13391,7 +13385,7 @@
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B893" s="1">
         <v>44850</v>
@@ -13405,7 +13399,7 @@
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B894" s="1">
         <v>44851</v>
@@ -13419,7 +13413,7 @@
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B895" s="1">
         <v>44852</v>
@@ -13433,7 +13427,7 @@
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B896" s="1">
         <v>44853</v>
@@ -13447,7 +13441,7 @@
     </row>
     <row r="897" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B897" s="1">
         <v>44854</v>
@@ -13461,7 +13455,7 @@
     </row>
     <row r="898" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B898" s="1">
         <v>44855</v>
@@ -13475,7 +13469,7 @@
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B899" s="1">
         <v>44856</v>
@@ -13489,7 +13483,7 @@
     </row>
     <row r="900" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B900" s="1">
         <v>44857</v>
@@ -13503,7 +13497,7 @@
     </row>
     <row r="901" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B901" s="1">
         <v>44858</v>
@@ -13517,7 +13511,7 @@
     </row>
     <row r="902" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B902" s="1">
         <v>44859</v>
@@ -13531,7 +13525,7 @@
     </row>
     <row r="903" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B903" s="1">
         <v>44860</v>
@@ -13545,7 +13539,7 @@
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B904" s="1">
         <v>44861</v>
@@ -13559,7 +13553,7 @@
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B905" s="1">
         <v>44862</v>
@@ -13573,7 +13567,7 @@
     </row>
     <row r="906" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B906" s="1">
         <v>44863</v>
@@ -13587,7 +13581,7 @@
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B907" s="1">
         <v>44864</v>
@@ -13601,7 +13595,7 @@
     </row>
     <row r="908" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B908" s="1">
         <v>44865</v>
@@ -13615,7 +13609,7 @@
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B909" s="1">
         <v>44866</v>
@@ -13629,7 +13623,7 @@
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B910" s="1">
         <v>44867</v>
@@ -13643,7 +13637,7 @@
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B911" s="1">
         <v>44868</v>
@@ -13657,7 +13651,7 @@
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B912" s="1">
         <v>44869</v>
@@ -13671,7 +13665,7 @@
     </row>
     <row r="913" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B913" s="1">
         <v>44870</v>
@@ -13685,7 +13679,7 @@
     </row>
     <row r="914" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B914" s="1">
         <v>44871</v>
@@ -13699,7 +13693,7 @@
     </row>
     <row r="915" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B915" s="1">
         <v>44872</v>
@@ -13713,7 +13707,7 @@
     </row>
     <row r="916" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B916" s="1">
         <v>44873</v>
@@ -13727,7 +13721,7 @@
     </row>
     <row r="917" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B917" s="1">
         <v>44874</v>
@@ -13741,7 +13735,7 @@
     </row>
     <row r="918" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B918" s="1">
         <v>44875</v>
@@ -13755,7 +13749,7 @@
     </row>
     <row r="919" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B919" s="1">
         <v>44876</v>
@@ -13769,7 +13763,7 @@
     </row>
     <row r="920" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B920" s="1">
         <v>44877</v>
@@ -13783,7 +13777,7 @@
     </row>
     <row r="921" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B921" s="1">
         <v>44878</v>
@@ -13797,7 +13791,7 @@
     </row>
     <row r="922" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B922" s="1">
         <v>44879</v>
@@ -13811,7 +13805,7 @@
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B923" s="1">
         <v>44880</v>

--- a/task1feb2022/streams/31d5_WMSFU.xlsx
+++ b/task1feb2022/streams/31d5_WMSFU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aed31\Desktop\reactdoing\data\task1feb2022\streams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3542F0AB-F0C7-4F6E-9E5B-62F122185F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83932C3-7262-43D6-864C-56A95698C4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,16 +25,16 @@
     <t>Site_Code</t>
   </si>
   <si>
-    <t>Collect Date (local)</t>
-  </si>
-  <si>
     <t>Stage (ft)</t>
   </si>
   <si>
-    <t>Discharge (cfs)</t>
+    <t>31d5</t>
   </si>
   <si>
-    <t>31d5</t>
+    <t>Discharge_cfs</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -886,7 +886,7 @@
   <dimension ref="A1:D923"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>43959</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>43960</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>43961</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>43962</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>43963</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>43964</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1">
         <v>43965</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1">
         <v>43966</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1">
         <v>43967</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>43968</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>43969</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
         <v>43970</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
         <v>43971</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1">
         <v>43972</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1">
         <v>43973</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1">
         <v>43974</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1">
         <v>43975</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1">
         <v>43976</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1">
         <v>43977</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1">
         <v>43978</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1">
         <v>43979</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1">
         <v>43980</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" s="1">
         <v>43981</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" s="1">
         <v>43982</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1">
         <v>43983</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B27" s="1">
         <v>43984</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B28" s="1">
         <v>43985</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29" s="1">
         <v>43986</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30" s="1">
         <v>43987</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31" s="1">
         <v>43988</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B32" s="1">
         <v>43989</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B33" s="1">
         <v>43990</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B34" s="1">
         <v>43991</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B35" s="1">
         <v>43992</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B36" s="1">
         <v>43993</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B37" s="1">
         <v>43994</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B38" s="1">
         <v>43995</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B39" s="1">
         <v>43996</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B40" s="1">
         <v>43997</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B41" s="1">
         <v>43998</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B42" s="1">
         <v>43999</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B43" s="1">
         <v>44000</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B44" s="1">
         <v>44001</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B45" s="1">
         <v>44002</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B46" s="1">
         <v>44003</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B47" s="1">
         <v>44004</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B48" s="1">
         <v>44005</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B49" s="1">
         <v>44006</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B50" s="1">
         <v>44007</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B51" s="1">
         <v>44008</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B52" s="1">
         <v>44009</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B53" s="1">
         <v>44010</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B54" s="1">
         <v>44011</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B55" s="1">
         <v>44012</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B56" s="1">
         <v>44013</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B57" s="1">
         <v>44014</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B58" s="1">
         <v>44015</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B59" s="1">
         <v>44016</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B60" s="1">
         <v>44017</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B61" s="1">
         <v>44018</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B62" s="1">
         <v>44019</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B63" s="1">
         <v>44020</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B64" s="1">
         <v>44021</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B65" s="1">
         <v>44022</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B66" s="1">
         <v>44023</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B67" s="1">
         <v>44024</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B68" s="1">
         <v>44025</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B69" s="1">
         <v>44026</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B70" s="1">
         <v>44027</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B71" s="1">
         <v>44028</v>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B72" s="1">
         <v>44029</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B73" s="1">
         <v>44030</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B74" s="1">
         <v>44031</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B75" s="1">
         <v>44032</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B76" s="1">
         <v>44033</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B77" s="1">
         <v>44034</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B78" s="1">
         <v>44035</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B79" s="1">
         <v>44036</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B80" s="1">
         <v>44037</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B81" s="1">
         <v>44038</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B82" s="1">
         <v>44039</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B83" s="1">
         <v>44040</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B84" s="1">
         <v>44041</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B85" s="1">
         <v>44042</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B86" s="1">
         <v>44043</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B87" s="1">
         <v>44044</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B88" s="1">
         <v>44045</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B89" s="1">
         <v>44046</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B90" s="1">
         <v>44047</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B91" s="1">
         <v>44048</v>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B92" s="1">
         <v>44049</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B93" s="1">
         <v>44050</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B94" s="1">
         <v>44051</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B95" s="1">
         <v>44052</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B96" s="1">
         <v>44053</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B97" s="1">
         <v>44054</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B98" s="1">
         <v>44055</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B99" s="1">
         <v>44056</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B100" s="1">
         <v>44057</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B101" s="1">
         <v>44058</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B102" s="1">
         <v>44059</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B103" s="1">
         <v>44060</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B104" s="1">
         <v>44061</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B105" s="1">
         <v>44062</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B106" s="1">
         <v>44063</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B107" s="1">
         <v>44064</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B108" s="1">
         <v>44065</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B109" s="1">
         <v>44066</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B110" s="1">
         <v>44067</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B111" s="1">
         <v>44068</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B112" s="1">
         <v>44069</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B113" s="1">
         <v>44070</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B114" s="1">
         <v>44071</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B115" s="1">
         <v>44072</v>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B116" s="1">
         <v>44073</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B117" s="1">
         <v>44074</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B118" s="1">
         <v>44075</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B119" s="1">
         <v>44076</v>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B120" s="1">
         <v>44077</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B121" s="1">
         <v>44078</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B122" s="1">
         <v>44079</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B123" s="1">
         <v>44080</v>
@@ -2619,7 +2619,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B124" s="1">
         <v>44081</v>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B125" s="1">
         <v>44082</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B126" s="1">
         <v>44083</v>
@@ -2661,7 +2661,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B127" s="1">
         <v>44084</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B128" s="1">
         <v>44085</v>
@@ -2689,7 +2689,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B129" s="1">
         <v>44086</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B130" s="1">
         <v>44087</v>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B131" s="1">
         <v>44088</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B132" s="1">
         <v>44089</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B133" s="1">
         <v>44090</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B134" s="1">
         <v>44091</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B135" s="1">
         <v>44092</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B136" s="1">
         <v>44093</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B137" s="1">
         <v>44094</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B138" s="1">
         <v>44095</v>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B139" s="1">
         <v>44096</v>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B140" s="1">
         <v>44097</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B141" s="1">
         <v>44098</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B142" s="1">
         <v>44099</v>
@@ -2885,7 +2885,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B143" s="1">
         <v>44100</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B144" s="1">
         <v>44101</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B145" s="1">
         <v>44102</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B146" s="1">
         <v>44103</v>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B147" s="1">
         <v>44104</v>
@@ -2955,7 +2955,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B148" s="1">
         <v>44105</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B149" s="1">
         <v>44106</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B150" s="1">
         <v>44107</v>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B151" s="1">
         <v>44108</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B152" s="1">
         <v>44109</v>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B153" s="1">
         <v>44110</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B154" s="1">
         <v>44111</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B155" s="1">
         <v>44112</v>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B156" s="1">
         <v>44113</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B157" s="1">
         <v>44114</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B158" s="1">
         <v>44115</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B159" s="1">
         <v>44116</v>
@@ -3123,7 +3123,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B160" s="1">
         <v>44117</v>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B161" s="1">
         <v>44118</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B162" s="1">
         <v>44119</v>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B163" s="1">
         <v>44120</v>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B164" s="1">
         <v>44121</v>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B165" s="1">
         <v>44122</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B166" s="1">
         <v>44123</v>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B167" s="1">
         <v>44124</v>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B168" s="1">
         <v>44125</v>
@@ -3249,7 +3249,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B169" s="1">
         <v>44126</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B170" s="1">
         <v>44127</v>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B171" s="1">
         <v>44128</v>
@@ -3291,7 +3291,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B172" s="1">
         <v>44129</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B173" s="1">
         <v>44130</v>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B174" s="1">
         <v>44131</v>
@@ -3333,7 +3333,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B175" s="1">
         <v>44132</v>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B176" s="1">
         <v>44133</v>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B177" s="1">
         <v>44134</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B178" s="1">
         <v>44135</v>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B179" s="1">
         <v>44136</v>
@@ -3403,7 +3403,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B180" s="1">
         <v>44137</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B181" s="1">
         <v>44138</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B182" s="1">
         <v>44139</v>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B183" s="1">
         <v>44140</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B184" s="1">
         <v>44141</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B185" s="1">
         <v>44142</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B186" s="1">
         <v>44143</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B187" s="1">
         <v>44144</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B188" s="1">
         <v>44145</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B189" s="1">
         <v>44146</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B190" s="1">
         <v>44147</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B191" s="1">
         <v>44148</v>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B192" s="1">
         <v>44149</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B193" s="1">
         <v>44150</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B194" s="1">
         <v>44151</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B195" s="1">
         <v>44152</v>
@@ -3627,7 +3627,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B196" s="1">
         <v>44153</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B197" s="1">
         <v>44154</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B198" s="1">
         <v>44155</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B199" s="1">
         <v>44156</v>
@@ -3683,7 +3683,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B200" s="1">
         <v>44157</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B201" s="1">
         <v>44158</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B202" s="1">
         <v>44159</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B203" s="1">
         <v>44160</v>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B204" s="1">
         <v>44161</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B205" s="1">
         <v>44162</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B206" s="1">
         <v>44163</v>
@@ -3781,7 +3781,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B207" s="1">
         <v>44164</v>
@@ -3795,7 +3795,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B208" s="1">
         <v>44165</v>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B209" s="1">
         <v>44166</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B210" s="1">
         <v>44167</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B211" s="1">
         <v>44168</v>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B212" s="1">
         <v>44169</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B213" s="1">
         <v>44170</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B214" s="1">
         <v>44171</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B215" s="1">
         <v>44172</v>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B216" s="1">
         <v>44173</v>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B217" s="1">
         <v>44174</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B218" s="1">
         <v>44175</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B219" s="1">
         <v>44176</v>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B220" s="1">
         <v>44177</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B221" s="1">
         <v>44178</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B222" s="1">
         <v>44179</v>
@@ -4005,7 +4005,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B223" s="1">
         <v>44180</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B224" s="1">
         <v>44181</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B225" s="1">
         <v>44182</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B226" s="1">
         <v>44183</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B227" s="1">
         <v>44184</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B228" s="1">
         <v>44185</v>
@@ -4089,7 +4089,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B229" s="1">
         <v>44186</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B230" s="1">
         <v>44187</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B231" s="1">
         <v>44188</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B232" s="1">
         <v>44189</v>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B233" s="1">
         <v>44190</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B234" s="1">
         <v>44191</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B235" s="1">
         <v>44192</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B236" s="1">
         <v>44193</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B237" s="1">
         <v>44194</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B238" s="1">
         <v>44195</v>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B239" s="1">
         <v>44196</v>
@@ -4243,7 +4243,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B240" s="1">
         <v>44197</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B241" s="1">
         <v>44198</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B242" s="1">
         <v>44199</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B243" s="1">
         <v>44200</v>
@@ -4299,7 +4299,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B244" s="1">
         <v>44201</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B245" s="1">
         <v>44202</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B246" s="1">
         <v>44203</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B247" s="1">
         <v>44204</v>
@@ -4355,7 +4355,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B248" s="1">
         <v>44205</v>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B249" s="1">
         <v>44206</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B250" s="1">
         <v>44207</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B251" s="1">
         <v>44208</v>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B252" s="1">
         <v>44209</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B253" s="1">
         <v>44210</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B254" s="1">
         <v>44211</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B255" s="1">
         <v>44212</v>
@@ -4467,7 +4467,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B256" s="1">
         <v>44213</v>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B257" s="1">
         <v>44214</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B258" s="1">
         <v>44215</v>
@@ -4509,7 +4509,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B259" s="1">
         <v>44216</v>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B260" s="1">
         <v>44217</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B261" s="1">
         <v>44218</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B262" s="1">
         <v>44219</v>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B263" s="1">
         <v>44220</v>
@@ -4579,7 +4579,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B264" s="1">
         <v>44221</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B265" s="1">
         <v>44222</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B266" s="1">
         <v>44223</v>
@@ -4621,7 +4621,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B267" s="1">
         <v>44224</v>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B268" s="1">
         <v>44225</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B269" s="1">
         <v>44226</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B270" s="1">
         <v>44227</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B271" s="1">
         <v>44228</v>
@@ -4691,7 +4691,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B272" s="1">
         <v>44229</v>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B273" s="1">
         <v>44230</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B274" s="1">
         <v>44231</v>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B275" s="1">
         <v>44232</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B276" s="1">
         <v>44233</v>
@@ -4761,7 +4761,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B277" s="1">
         <v>44234</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B278" s="1">
         <v>44235</v>
@@ -4789,7 +4789,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B279" s="1">
         <v>44236</v>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B280" s="1">
         <v>44237</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B281" s="1">
         <v>44238</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B282" s="1">
         <v>44239</v>
@@ -4845,7 +4845,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B283" s="1">
         <v>44240</v>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B284" s="1">
         <v>44241</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B285" s="1">
         <v>44242</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B286" s="1">
         <v>44243</v>
@@ -4901,7 +4901,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B287" s="1">
         <v>44244</v>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B288" s="1">
         <v>44245</v>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B289" s="1">
         <v>44246</v>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B290" s="1">
         <v>44247</v>
@@ -4957,7 +4957,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B291" s="1">
         <v>44248</v>
@@ -4971,7 +4971,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B292" s="1">
         <v>44249</v>
@@ -4985,7 +4985,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B293" s="1">
         <v>44250</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B294" s="1">
         <v>44251</v>
@@ -5013,7 +5013,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B295" s="1">
         <v>44252</v>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B296" s="1">
         <v>44253</v>
@@ -5041,7 +5041,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B297" s="1">
         <v>44254</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B298" s="1">
         <v>44255</v>
@@ -5069,7 +5069,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B299" s="1">
         <v>44256</v>
@@ -5083,7 +5083,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B300" s="1">
         <v>44257</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B301" s="1">
         <v>44258</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B302" s="1">
         <v>44259</v>
@@ -5125,7 +5125,7 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B303" s="1">
         <v>44260</v>
@@ -5139,7 +5139,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B304" s="1">
         <v>44261</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B305" s="1">
         <v>44262</v>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B306" s="1">
         <v>44263</v>
@@ -5181,7 +5181,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B307" s="1">
         <v>44264</v>
@@ -5195,7 +5195,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B308" s="1">
         <v>44265</v>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B309" s="1">
         <v>44266</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B310" s="1">
         <v>44267</v>
@@ -5237,7 +5237,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B311" s="1">
         <v>44268</v>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B312" s="1">
         <v>44269</v>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B313" s="1">
         <v>44270</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B314" s="1">
         <v>44271</v>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B315" s="1">
         <v>44272</v>
@@ -5307,7 +5307,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B316" s="1">
         <v>44273</v>
@@ -5321,7 +5321,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B317" s="1">
         <v>44274</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B318" s="1">
         <v>44275</v>
@@ -5349,7 +5349,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B319" s="1">
         <v>44276</v>
@@ -5363,7 +5363,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B320" s="1">
         <v>44277</v>
@@ -5377,7 +5377,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B321" s="1">
         <v>44278</v>
@@ -5391,7 +5391,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B322" s="1">
         <v>44279</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B323" s="1">
         <v>44280</v>
@@ -5419,7 +5419,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B324" s="1">
         <v>44281</v>
@@ -5433,7 +5433,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B325" s="1">
         <v>44282</v>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B326" s="1">
         <v>44283</v>
@@ -5461,7 +5461,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B327" s="1">
         <v>44284</v>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B328" s="1">
         <v>44285</v>
@@ -5489,7 +5489,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B329" s="1">
         <v>44286</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B330" s="1">
         <v>44287</v>
@@ -5517,7 +5517,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B331" s="1">
         <v>44288</v>
@@ -5531,7 +5531,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B332" s="1">
         <v>44289</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B333" s="1">
         <v>44290</v>
@@ -5559,7 +5559,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B334" s="1">
         <v>44291</v>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B335" s="1">
         <v>44292</v>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B336" s="1">
         <v>44293</v>
@@ -5601,7 +5601,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B337" s="1">
         <v>44294</v>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B338" s="1">
         <v>44295</v>
@@ -5629,7 +5629,7 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B339" s="1">
         <v>44296</v>
@@ -5643,7 +5643,7 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B340" s="1">
         <v>44297</v>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B341" s="1">
         <v>44298</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B342" s="1">
         <v>44299</v>
@@ -5685,7 +5685,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B343" s="1">
         <v>44300</v>
@@ -5699,7 +5699,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B344" s="1">
         <v>44301</v>
@@ -5713,7 +5713,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B345" s="1">
         <v>44302</v>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B346" s="1">
         <v>44303</v>
@@ -5741,7 +5741,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B347" s="1">
         <v>44304</v>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B348" s="1">
         <v>44305</v>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B349" s="1">
         <v>44306</v>
@@ -5783,7 +5783,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B350" s="1">
         <v>44307</v>
@@ -5797,7 +5797,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B351" s="1">
         <v>44308</v>
@@ -5811,7 +5811,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B352" s="1">
         <v>44309</v>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B353" s="1">
         <v>44310</v>
@@ -5839,7 +5839,7 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B354" s="1">
         <v>44311</v>
@@ -5853,7 +5853,7 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B355" s="1">
         <v>44312</v>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B356" s="1">
         <v>44313</v>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B357" s="1">
         <v>44314</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B358" s="1">
         <v>44315</v>
@@ -5909,7 +5909,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B359" s="1">
         <v>44316</v>
@@ -5923,7 +5923,7 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B360" s="1">
         <v>44317</v>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B361" s="1">
         <v>44318</v>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B362" s="1">
         <v>44319</v>
@@ -5965,7 +5965,7 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B363" s="1">
         <v>44320</v>
@@ -5979,7 +5979,7 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B364" s="1">
         <v>44321</v>
@@ -5993,7 +5993,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B365" s="1">
         <v>44322</v>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B366" s="1">
         <v>44323</v>
@@ -6021,7 +6021,7 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B367" s="1">
         <v>44324</v>
@@ -6035,7 +6035,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B368" s="1">
         <v>44325</v>
@@ -6049,7 +6049,7 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B369" s="1">
         <v>44326</v>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B370" s="1">
         <v>44327</v>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B371" s="1">
         <v>44328</v>
@@ -6091,7 +6091,7 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B372" s="1">
         <v>44329</v>
@@ -6105,7 +6105,7 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B373" s="1">
         <v>44330</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B374" s="1">
         <v>44331</v>
@@ -6133,7 +6133,7 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B375" s="1">
         <v>44332</v>
@@ -6147,7 +6147,7 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B376" s="1">
         <v>44333</v>
@@ -6161,7 +6161,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B377" s="1">
         <v>44334</v>
@@ -6175,7 +6175,7 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B378" s="1">
         <v>44335</v>
@@ -6189,7 +6189,7 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B379" s="1">
         <v>44336</v>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B380" s="1">
         <v>44337</v>
@@ -6217,7 +6217,7 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B381" s="1">
         <v>44338</v>
@@ -6231,7 +6231,7 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B382" s="1">
         <v>44339</v>
@@ -6245,7 +6245,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B383" s="1">
         <v>44340</v>
@@ -6259,7 +6259,7 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B384" s="1">
         <v>44341</v>
@@ -6273,7 +6273,7 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B385" s="1">
         <v>44342</v>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B386" s="1">
         <v>44343</v>
@@ -6301,7 +6301,7 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B387" s="1">
         <v>44344</v>
@@ -6315,7 +6315,7 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B388" s="1">
         <v>44345</v>
@@ -6329,7 +6329,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B389" s="1">
         <v>44346</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B390" s="1">
         <v>44347</v>
@@ -6357,7 +6357,7 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B391" s="1">
         <v>44348</v>
@@ -6371,7 +6371,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B392" s="1">
         <v>44349</v>
@@ -6385,7 +6385,7 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B393" s="1">
         <v>44350</v>
@@ -6399,7 +6399,7 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B394" s="1">
         <v>44351</v>
@@ -6413,7 +6413,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B395" s="1">
         <v>44352</v>
@@ -6427,7 +6427,7 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B396" s="1">
         <v>44353</v>
@@ -6441,7 +6441,7 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B397" s="1">
         <v>44354</v>
@@ -6455,7 +6455,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B398" s="1">
         <v>44355</v>
@@ -6469,7 +6469,7 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B399" s="1">
         <v>44356</v>
@@ -6483,7 +6483,7 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B400" s="1">
         <v>44357</v>
@@ -6497,7 +6497,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B401" s="1">
         <v>44358</v>
@@ -6511,7 +6511,7 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B402" s="1">
         <v>44359</v>
@@ -6525,7 +6525,7 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B403" s="1">
         <v>44360</v>
@@ -6539,7 +6539,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B404" s="1">
         <v>44361</v>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B405" s="1">
         <v>44362</v>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B406" s="1">
         <v>44363</v>
@@ -6581,7 +6581,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B407" s="1">
         <v>44364</v>
@@ -6595,7 +6595,7 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B408" s="1">
         <v>44365</v>
@@ -6609,7 +6609,7 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B409" s="1">
         <v>44366</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B410" s="1">
         <v>44367</v>
@@ -6637,7 +6637,7 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B411" s="1">
         <v>44368</v>
@@ -6651,7 +6651,7 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B412" s="1">
         <v>44369</v>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B413" s="1">
         <v>44370</v>
@@ -6679,7 +6679,7 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B414" s="1">
         <v>44371</v>
@@ -6693,7 +6693,7 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B415" s="1">
         <v>44372</v>
@@ -6707,7 +6707,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B416" s="1">
         <v>44373</v>
@@ -6721,7 +6721,7 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B417" s="1">
         <v>44374</v>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B418" s="1">
         <v>44375</v>
@@ -6749,7 +6749,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B419" s="1">
         <v>44376</v>
@@ -6763,7 +6763,7 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B420" s="1">
         <v>44377</v>
@@ -6777,7 +6777,7 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B421" s="1">
         <v>44378</v>
@@ -6791,7 +6791,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B422" s="1">
         <v>44379</v>
@@ -6805,7 +6805,7 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B423" s="1">
         <v>44380</v>
@@ -6819,7 +6819,7 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B424" s="1">
         <v>44381</v>
@@ -6833,7 +6833,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B425" s="1">
         <v>44382</v>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B426" s="1">
         <v>44383</v>
@@ -6861,7 +6861,7 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B427" s="1">
         <v>44384</v>
@@ -6875,7 +6875,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B428" s="1">
         <v>44385</v>
@@ -6889,7 +6889,7 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B429" s="1">
         <v>44386</v>
@@ -6903,7 +6903,7 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B430" s="1">
         <v>44387</v>
@@ -6917,7 +6917,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B431" s="1">
         <v>44388</v>
@@ -6931,7 +6931,7 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B432" s="1">
         <v>44389</v>
@@ -6945,7 +6945,7 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B433" s="1">
         <v>44390</v>
@@ -6959,7 +6959,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B434" s="1">
         <v>44391</v>
@@ -6973,7 +6973,7 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B435" s="1">
         <v>44392</v>
@@ -6987,7 +6987,7 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B436" s="1">
         <v>44393</v>
@@ -7001,7 +7001,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B437" s="1">
         <v>44394</v>
@@ -7015,7 +7015,7 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B438" s="1">
         <v>44395</v>
@@ -7029,7 +7029,7 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B439" s="1">
         <v>44396</v>
@@ -7043,7 +7043,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B440" s="1">
         <v>44397</v>
@@ -7057,7 +7057,7 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B441" s="1">
         <v>44398</v>
@@ -7071,7 +7071,7 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B442" s="1">
         <v>44399</v>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B443" s="1">
         <v>44400</v>
@@ -7099,7 +7099,7 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B444" s="1">
         <v>44401</v>
@@ -7113,7 +7113,7 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B445" s="1">
         <v>44402</v>
@@ -7127,7 +7127,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B446" s="1">
         <v>44403</v>
@@ -7141,7 +7141,7 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B447" s="1">
         <v>44404</v>
@@ -7155,7 +7155,7 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B448" s="1">
         <v>44405</v>
@@ -7169,7 +7169,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B449" s="1">
         <v>44406</v>
@@ -7183,7 +7183,7 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B450" s="1">
         <v>44407</v>
@@ -7197,7 +7197,7 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B451" s="1">
         <v>44408</v>
@@ -7211,7 +7211,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B452" s="1">
         <v>44409</v>
@@ -7225,7 +7225,7 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B453" s="1">
         <v>44410</v>
@@ -7239,7 +7239,7 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B454" s="1">
         <v>44411</v>
@@ -7253,7 +7253,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B455" s="1">
         <v>44412</v>
@@ -7267,7 +7267,7 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B456" s="1">
         <v>44413</v>
@@ -7281,7 +7281,7 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B457" s="1">
         <v>44414</v>
@@ -7295,7 +7295,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B458" s="1">
         <v>44415</v>
@@ -7309,7 +7309,7 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B459" s="1">
         <v>44416</v>
@@ -7323,7 +7323,7 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B460" s="1">
         <v>44417</v>
@@ -7337,7 +7337,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B461" s="1">
         <v>44418</v>
@@ -7351,7 +7351,7 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B462" s="1">
         <v>44419</v>
@@ -7365,7 +7365,7 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B463" s="1">
         <v>44420</v>
@@ -7379,7 +7379,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B464" s="1">
         <v>44421</v>
@@ -7393,7 +7393,7 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B465" s="1">
         <v>44422</v>
@@ -7407,7 +7407,7 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B466" s="1">
         <v>44423</v>
@@ -7421,7 +7421,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B467" s="1">
         <v>44424</v>
@@ -7435,7 +7435,7 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B468" s="1">
         <v>44425</v>
@@ -7449,7 +7449,7 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B469" s="1">
         <v>44426</v>
@@ -7463,7 +7463,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B470" s="1">
         <v>44427</v>
@@ -7477,7 +7477,7 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B471" s="1">
         <v>44428</v>
@@ -7491,7 +7491,7 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B472" s="1">
         <v>44429</v>
@@ -7505,7 +7505,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B473" s="1">
         <v>44430</v>
@@ -7519,7 +7519,7 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B474" s="1">
         <v>44431</v>
@@ -7533,7 +7533,7 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B475" s="1">
         <v>44432</v>
@@ -7547,7 +7547,7 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B476" s="1">
         <v>44433</v>
@@ -7561,7 +7561,7 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B477" s="1">
         <v>44434</v>
@@ -7575,7 +7575,7 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B478" s="1">
         <v>44435</v>
@@ -7589,7 +7589,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B479" s="1">
         <v>44436</v>
@@ -7603,7 +7603,7 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B480" s="1">
         <v>44437</v>
@@ -7617,7 +7617,7 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B481" s="1">
         <v>44438</v>
@@ -7631,7 +7631,7 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B482" s="1">
         <v>44439</v>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B483" s="1">
         <v>44440</v>
@@ -7659,7 +7659,7 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B484" s="1">
         <v>44441</v>
@@ -7673,7 +7673,7 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B485" s="1">
         <v>44442</v>
@@ -7687,7 +7687,7 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B486" s="1">
         <v>44443</v>
@@ -7701,7 +7701,7 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B487" s="1">
         <v>44444</v>
@@ -7715,7 +7715,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B488" s="1">
         <v>44445</v>
@@ -7729,7 +7729,7 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B489" s="1">
         <v>44446</v>
@@ -7743,7 +7743,7 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B490" s="1">
         <v>44447</v>
@@ -7757,7 +7757,7 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B491" s="1">
         <v>44448</v>
@@ -7771,7 +7771,7 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B492" s="1">
         <v>44449</v>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B493" s="1">
         <v>44450</v>
@@ -7799,7 +7799,7 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B494" s="1">
         <v>44451</v>
@@ -7813,7 +7813,7 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B495" s="1">
         <v>44452</v>
@@ -7827,7 +7827,7 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B496" s="1">
         <v>44453</v>
@@ -7841,7 +7841,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B497" s="1">
         <v>44454</v>
@@ -7855,7 +7855,7 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B498" s="1">
         <v>44455</v>
@@ -7869,7 +7869,7 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B499" s="1">
         <v>44456</v>
@@ -7883,7 +7883,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B500" s="1">
         <v>44457</v>
@@ -7897,7 +7897,7 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B501" s="1">
         <v>44458</v>
@@ -7911,7 +7911,7 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B502" s="1">
         <v>44459</v>
@@ -7925,7 +7925,7 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B503" s="1">
         <v>44460</v>
@@ -7939,7 +7939,7 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B504" s="1">
         <v>44461</v>
@@ -7953,7 +7953,7 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B505" s="1">
         <v>44462</v>
@@ -7967,7 +7967,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B506" s="1">
         <v>44463</v>
@@ -7981,7 +7981,7 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B507" s="1">
         <v>44464</v>
@@ -7995,7 +7995,7 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B508" s="1">
         <v>44465</v>
@@ -8009,7 +8009,7 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B509" s="1">
         <v>44466</v>
@@ -8023,7 +8023,7 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B510" s="1">
         <v>44467</v>
@@ -8037,7 +8037,7 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B511" s="1">
         <v>44468</v>
@@ -8051,7 +8051,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B512" s="1">
         <v>44469</v>
@@ -8065,7 +8065,7 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B513" s="1">
         <v>44470</v>
@@ -8079,7 +8079,7 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B514" s="1">
         <v>44471</v>
@@ -8093,7 +8093,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B515" s="1">
         <v>44472</v>
@@ -8107,7 +8107,7 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B516" s="1">
         <v>44473</v>
@@ -8121,7 +8121,7 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B517" s="1">
         <v>44474</v>
@@ -8135,7 +8135,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B518" s="1">
         <v>44475</v>
@@ -8149,7 +8149,7 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B519" s="1">
         <v>44476</v>
@@ -8163,7 +8163,7 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B520" s="1">
         <v>44477</v>
@@ -8177,7 +8177,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B521" s="1">
         <v>44478</v>
@@ -8191,7 +8191,7 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B522" s="1">
         <v>44479</v>
@@ -8205,7 +8205,7 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B523" s="1">
         <v>44480</v>
@@ -8219,7 +8219,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B524" s="1">
         <v>44481</v>
@@ -8233,7 +8233,7 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B525" s="1">
         <v>44482</v>
@@ -8247,7 +8247,7 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B526" s="1">
         <v>44483</v>
@@ -8261,7 +8261,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B527" s="1">
         <v>44484</v>
@@ -8275,7 +8275,7 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B528" s="1">
         <v>44485</v>
@@ -8289,7 +8289,7 @@
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B529" s="1">
         <v>44486</v>
@@ -8303,7 +8303,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B530" s="1">
         <v>44487</v>
@@ -8317,7 +8317,7 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B531" s="1">
         <v>44488</v>
@@ -8331,7 +8331,7 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B532" s="1">
         <v>44489</v>
@@ -8345,7 +8345,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B533" s="1">
         <v>44490</v>
@@ -8359,7 +8359,7 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B534" s="1">
         <v>44491</v>
@@ -8373,7 +8373,7 @@
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B535" s="1">
         <v>44492</v>
@@ -8387,7 +8387,7 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B536" s="1">
         <v>44493</v>
@@ -8401,7 +8401,7 @@
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B537" s="1">
         <v>44494</v>
@@ -8415,7 +8415,7 @@
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B538" s="1">
         <v>44495</v>
@@ -8429,7 +8429,7 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B539" s="1">
         <v>44496</v>
@@ -8443,7 +8443,7 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B540" s="1">
         <v>44497</v>
@@ -8457,7 +8457,7 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B541" s="1">
         <v>44498</v>
@@ -8471,7 +8471,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B542" s="1">
         <v>44499</v>
@@ -8485,7 +8485,7 @@
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B543" s="1">
         <v>44500</v>
@@ -8499,7 +8499,7 @@
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B544" s="1">
         <v>44501</v>
@@ -8513,7 +8513,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B545" s="1">
         <v>44502</v>
@@ -8527,7 +8527,7 @@
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B546" s="1">
         <v>44503</v>
@@ -8541,7 +8541,7 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B547" s="1">
         <v>44504</v>
@@ -8555,7 +8555,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B548" s="1">
         <v>44505</v>
@@ -8569,7 +8569,7 @@
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B549" s="1">
         <v>44506</v>
@@ -8583,7 +8583,7 @@
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B550" s="1">
         <v>44507</v>
@@ -8597,7 +8597,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B551" s="1">
         <v>44508</v>
@@ -8611,7 +8611,7 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B552" s="1">
         <v>44509</v>
@@ -8625,7 +8625,7 @@
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B553" s="1">
         <v>44510</v>
@@ -8639,7 +8639,7 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B554" s="1">
         <v>44511</v>
@@ -8653,7 +8653,7 @@
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B555" s="1">
         <v>44512</v>
@@ -8667,7 +8667,7 @@
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B556" s="1">
         <v>44513</v>
@@ -8681,7 +8681,7 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B557" s="1">
         <v>44514</v>
@@ -8695,7 +8695,7 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B558" s="1">
         <v>44515</v>
@@ -8709,7 +8709,7 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B559" s="1">
         <v>44516</v>
@@ -8723,7 +8723,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B560" s="1">
         <v>44517</v>
@@ -8737,7 +8737,7 @@
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B561" s="1">
         <v>44518</v>
@@ -8751,7 +8751,7 @@
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B562" s="1">
         <v>44519</v>
@@ -8765,7 +8765,7 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B563" s="1">
         <v>44520</v>
@@ -8779,7 +8779,7 @@
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B564" s="1">
         <v>44521</v>
@@ -8793,7 +8793,7 @@
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B565" s="1">
         <v>44522</v>
@@ -8807,7 +8807,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B566" s="1">
         <v>44523</v>
@@ -8821,7 +8821,7 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B567" s="1">
         <v>44524</v>
@@ -8835,7 +8835,7 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B568" s="1">
         <v>44525</v>
@@ -8849,7 +8849,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B569" s="1">
         <v>44526</v>
@@ -8863,7 +8863,7 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B570" s="1">
         <v>44527</v>
@@ -8877,7 +8877,7 @@
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B571" s="1">
         <v>44528</v>
@@ -8891,7 +8891,7 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B572" s="1">
         <v>44529</v>
@@ -8905,7 +8905,7 @@
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B573" s="1">
         <v>44530</v>
@@ -8919,7 +8919,7 @@
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B574" s="1">
         <v>44531</v>
@@ -8933,7 +8933,7 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B575" s="1">
         <v>44532</v>
@@ -8947,7 +8947,7 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B576" s="1">
         <v>44533</v>
@@ -8961,7 +8961,7 @@
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B577" s="1">
         <v>44534</v>
@@ -8975,7 +8975,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B578" s="1">
         <v>44535</v>
@@ -8989,7 +8989,7 @@
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B579" s="1">
         <v>44536</v>
@@ -9003,7 +9003,7 @@
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B580" s="1">
         <v>44537</v>
@@ -9017,7 +9017,7 @@
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B581" s="1">
         <v>44538</v>
@@ -9031,7 +9031,7 @@
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B582" s="1">
         <v>44539</v>
@@ -9045,7 +9045,7 @@
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B583" s="1">
         <v>44540</v>
@@ -9059,7 +9059,7 @@
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B584" s="1">
         <v>44541</v>
@@ -9073,7 +9073,7 @@
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B585" s="1">
         <v>44542</v>
@@ -9087,7 +9087,7 @@
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B586" s="1">
         <v>44543</v>
@@ -9101,7 +9101,7 @@
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B587" s="1">
         <v>44544</v>
@@ -9115,7 +9115,7 @@
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B588" s="1">
         <v>44545</v>
@@ -9129,7 +9129,7 @@
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B589" s="1">
         <v>44546</v>
@@ -9143,7 +9143,7 @@
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B590" s="1">
         <v>44547</v>
@@ -9157,7 +9157,7 @@
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B591" s="1">
         <v>44548</v>
@@ -9171,7 +9171,7 @@
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B592" s="1">
         <v>44549</v>
@@ -9185,7 +9185,7 @@
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B593" s="1">
         <v>44550</v>
@@ -9199,7 +9199,7 @@
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B594" s="1">
         <v>44551</v>
@@ -9213,7 +9213,7 @@
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B595" s="1">
         <v>44552</v>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B596" s="1">
         <v>44553</v>
@@ -9241,7 +9241,7 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B597" s="1">
         <v>44554</v>
@@ -9255,7 +9255,7 @@
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B598" s="1">
         <v>44555</v>
@@ -9269,7 +9269,7 @@
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B599" s="1">
         <v>44556</v>
@@ -9283,7 +9283,7 @@
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B600" s="1">
         <v>44557</v>
@@ -9297,7 +9297,7 @@
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B601" s="1">
         <v>44558</v>
@@ -9311,7 +9311,7 @@
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B602" s="1">
         <v>44559</v>
@@ -9325,7 +9325,7 @@
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B603" s="1">
         <v>44560</v>
@@ -9339,7 +9339,7 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B604" s="1">
         <v>44561</v>
@@ -9353,7 +9353,7 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B605" s="1">
         <v>44562</v>
@@ -9367,7 +9367,7 @@
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B606" s="1">
         <v>44563</v>
@@ -9381,7 +9381,7 @@
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B607" s="1">
         <v>44564</v>
@@ -9395,7 +9395,7 @@
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B608" s="1">
         <v>44565</v>
@@ -9409,7 +9409,7 @@
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B609" s="1">
         <v>44566</v>
@@ -9423,7 +9423,7 @@
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B610" s="1">
         <v>44567</v>
@@ -9437,7 +9437,7 @@
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B611" s="1">
         <v>44568</v>
@@ -9451,7 +9451,7 @@
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B612" s="1">
         <v>44569</v>
@@ -9465,7 +9465,7 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B613" s="1">
         <v>44570</v>
@@ -9479,7 +9479,7 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B614" s="1">
         <v>44571</v>
@@ -9493,7 +9493,7 @@
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B615" s="1">
         <v>44572</v>
@@ -9507,7 +9507,7 @@
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B616" s="1">
         <v>44573</v>
@@ -9521,7 +9521,7 @@
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B617" s="1">
         <v>44574</v>
@@ -9535,7 +9535,7 @@
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B618" s="1">
         <v>44575</v>
@@ -9549,7 +9549,7 @@
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B619" s="1">
         <v>44576</v>
@@ -9563,7 +9563,7 @@
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B620" s="1">
         <v>44577</v>
@@ -9577,7 +9577,7 @@
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B621" s="1">
         <v>44578</v>
@@ -9591,7 +9591,7 @@
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B622" s="1">
         <v>44579</v>
@@ -9605,7 +9605,7 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B623" s="1">
         <v>44580</v>
@@ -9619,7 +9619,7 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B624" s="1">
         <v>44581</v>
@@ -9633,7 +9633,7 @@
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B625" s="1">
         <v>44582</v>
@@ -9647,7 +9647,7 @@
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B626" s="1">
         <v>44583</v>
@@ -9661,7 +9661,7 @@
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B627" s="1">
         <v>44584</v>
@@ -9675,7 +9675,7 @@
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B628" s="1">
         <v>44585</v>
@@ -9689,7 +9689,7 @@
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B629" s="1">
         <v>44586</v>
@@ -9703,7 +9703,7 @@
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B630" s="1">
         <v>44587</v>
@@ -9717,7 +9717,7 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B631" s="1">
         <v>44588</v>
@@ -9731,7 +9731,7 @@
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B632" s="1">
         <v>44589</v>
@@ -9745,7 +9745,7 @@
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B633" s="1">
         <v>44590</v>
@@ -9759,7 +9759,7 @@
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B634" s="1">
         <v>44591</v>
@@ -9773,7 +9773,7 @@
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B635" s="1">
         <v>44592</v>
@@ -9787,7 +9787,7 @@
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B636" s="1">
         <v>44593</v>
@@ -9801,7 +9801,7 @@
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B637" s="1">
         <v>44594</v>
@@ -9815,7 +9815,7 @@
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B638" s="1">
         <v>44595</v>
@@ -9829,7 +9829,7 @@
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B639" s="1">
         <v>44596</v>
@@ -9843,7 +9843,7 @@
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B640" s="1">
         <v>44597</v>
@@ -9857,7 +9857,7 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B641" s="1">
         <v>44598</v>
@@ -9871,7 +9871,7 @@
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B642" s="1">
         <v>44599</v>
@@ -9885,7 +9885,7 @@
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B643" s="1">
         <v>44600</v>
@@ -9899,7 +9899,7 @@
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B644" s="1">
         <v>44601</v>
@@ -9913,7 +9913,7 @@
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B645" s="1">
         <v>44602</v>
@@ -9927,7 +9927,7 @@
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B646" s="1">
         <v>44603</v>
@@ -9941,7 +9941,7 @@
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B647" s="1">
         <v>44604</v>
@@ -9955,7 +9955,7 @@
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B648" s="1">
         <v>44605</v>
@@ -9969,7 +9969,7 @@
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B649" s="1">
         <v>44606</v>
@@ -9983,7 +9983,7 @@
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B650" s="1">
         <v>44607</v>
@@ -9997,7 +9997,7 @@
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B651" s="1">
         <v>44608</v>
@@ -10011,7 +10011,7 @@
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B652" s="1">
         <v>44609</v>
@@ -10025,7 +10025,7 @@
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B653" s="1">
         <v>44610</v>
@@ -10039,7 +10039,7 @@
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B654" s="1">
         <v>44611</v>
@@ -10053,7 +10053,7 @@
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B655" s="1">
         <v>44612</v>
@@ -10067,7 +10067,7 @@
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B656" s="1">
         <v>44613</v>
@@ -10081,7 +10081,7 @@
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B657" s="1">
         <v>44614</v>
@@ -10095,7 +10095,7 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B658" s="1">
         <v>44615</v>
@@ -10109,7 +10109,7 @@
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B659" s="1">
         <v>44616</v>
@@ -10123,7 +10123,7 @@
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B660" s="1">
         <v>44617</v>
@@ -10137,7 +10137,7 @@
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B661" s="1">
         <v>44618</v>
@@ -10151,7 +10151,7 @@
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B662" s="1">
         <v>44619</v>
@@ -10165,7 +10165,7 @@
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B663" s="1">
         <v>44620</v>
@@ -10179,7 +10179,7 @@
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B664" s="1">
         <v>44621</v>
@@ -10193,7 +10193,7 @@
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B665" s="1">
         <v>44622</v>
@@ -10207,7 +10207,7 @@
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B666" s="1">
         <v>44623</v>
@@ -10221,7 +10221,7 @@
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B667" s="1">
         <v>44624</v>
@@ -10235,7 +10235,7 @@
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B668" s="1">
         <v>44625</v>
@@ -10249,7 +10249,7 @@
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B669" s="1">
         <v>44626</v>
@@ -10263,7 +10263,7 @@
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B670" s="1">
         <v>44627</v>
@@ -10277,7 +10277,7 @@
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B671" s="1">
         <v>44628</v>
@@ -10291,7 +10291,7 @@
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B672" s="1">
         <v>44629</v>
@@ -10305,7 +10305,7 @@
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B673" s="1">
         <v>44630</v>
@@ -10319,7 +10319,7 @@
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B674" s="1">
         <v>44631</v>
@@ -10333,7 +10333,7 @@
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B675" s="1">
         <v>44632</v>
@@ -10347,7 +10347,7 @@
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B676" s="1">
         <v>44633</v>
@@ -10361,7 +10361,7 @@
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B677" s="1">
         <v>44634</v>
@@ -10375,7 +10375,7 @@
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B678" s="1">
         <v>44635</v>
@@ -10389,7 +10389,7 @@
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B679" s="1">
         <v>44636</v>
@@ -10403,7 +10403,7 @@
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B680" s="1">
         <v>44637</v>
@@ -10417,7 +10417,7 @@
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B681" s="1">
         <v>44638</v>
@@ -10431,7 +10431,7 @@
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B682" s="1">
         <v>44639</v>
@@ -10445,7 +10445,7 @@
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B683" s="1">
         <v>44640</v>
@@ -10459,7 +10459,7 @@
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B684" s="1">
         <v>44641</v>
@@ -10473,7 +10473,7 @@
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B685" s="1">
         <v>44642</v>
@@ -10487,7 +10487,7 @@
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B686" s="1">
         <v>44643</v>
@@ -10501,7 +10501,7 @@
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B687" s="1">
         <v>44644</v>
@@ -10515,7 +10515,7 @@
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B688" s="1">
         <v>44645</v>
@@ -10529,7 +10529,7 @@
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B689" s="1">
         <v>44646</v>
@@ -10543,7 +10543,7 @@
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B690" s="1">
         <v>44647</v>
@@ -10557,7 +10557,7 @@
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B691" s="1">
         <v>44648</v>
@@ -10571,7 +10571,7 @@
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B692" s="1">
         <v>44649</v>
@@ -10585,7 +10585,7 @@
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B693" s="1">
         <v>44650</v>
@@ -10599,7 +10599,7 @@
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B694" s="1">
         <v>44651</v>
@@ -10613,7 +10613,7 @@
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B695" s="1">
         <v>44652</v>
@@ -10627,7 +10627,7 @@
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B696" s="1">
         <v>44653</v>
@@ -10641,7 +10641,7 @@
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B697" s="1">
         <v>44654</v>
@@ -10655,7 +10655,7 @@
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B698" s="1">
         <v>44655</v>
@@ -10669,7 +10669,7 @@
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B699" s="1">
         <v>44656</v>
@@ -10683,7 +10683,7 @@
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B700" s="1">
         <v>44657</v>
@@ -10697,7 +10697,7 @@
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B701" s="1">
         <v>44658</v>
@@ -10711,7 +10711,7 @@
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B702" s="1">
         <v>44659</v>
@@ -10725,7 +10725,7 @@
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B703" s="1">
         <v>44660</v>
@@ -10739,7 +10739,7 @@
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B704" s="1">
         <v>44661</v>
@@ -10753,7 +10753,7 @@
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B705" s="1">
         <v>44662</v>
@@ -10767,7 +10767,7 @@
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B706" s="1">
         <v>44663</v>
@@ -10781,7 +10781,7 @@
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B707" s="1">
         <v>44664</v>
@@ -10795,7 +10795,7 @@
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B708" s="1">
         <v>44665</v>
@@ -10809,7 +10809,7 @@
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B709" s="1">
         <v>44666</v>
@@ -10823,7 +10823,7 @@
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B710" s="1">
         <v>44667</v>
@@ -10837,7 +10837,7 @@
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B711" s="1">
         <v>44668</v>
@@ -10851,7 +10851,7 @@
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B712" s="1">
         <v>44669</v>
@@ -10865,7 +10865,7 @@
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B713" s="1">
         <v>44670</v>
@@ -10879,7 +10879,7 @@
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B714" s="1">
         <v>44671</v>
@@ -10893,7 +10893,7 @@
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B715" s="1">
         <v>44672</v>
@@ -10907,7 +10907,7 @@
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B716" s="1">
         <v>44673</v>
@@ -10921,7 +10921,7 @@
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B717" s="1">
         <v>44674</v>
@@ -10935,7 +10935,7 @@
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B718" s="1">
         <v>44675</v>
@@ -10949,7 +10949,7 @@
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B719" s="1">
         <v>44676</v>
@@ -10963,7 +10963,7 @@
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B720" s="1">
         <v>44677</v>
@@ -10977,7 +10977,7 @@
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B721" s="1">
         <v>44678</v>
@@ -10991,7 +10991,7 @@
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B722" s="1">
         <v>44679</v>
@@ -11005,7 +11005,7 @@
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B723" s="1">
         <v>44680</v>
@@ -11019,7 +11019,7 @@
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B724" s="1">
         <v>44681</v>
@@ -11033,7 +11033,7 @@
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B725" s="1">
         <v>44682</v>
@@ -11047,7 +11047,7 @@
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B726" s="1">
         <v>44683</v>
@@ -11061,7 +11061,7 @@
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B727" s="1">
         <v>44684</v>
@@ -11075,7 +11075,7 @@
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B728" s="1">
         <v>44685</v>
@@ -11089,7 +11089,7 @@
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B729" s="1">
         <v>44686</v>
@@ -11103,7 +11103,7 @@
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B730" s="1">
         <v>44687</v>
@@ -11117,7 +11117,7 @@
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B731" s="1">
         <v>44688</v>
@@ -11131,7 +11131,7 @@
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B732" s="1">
         <v>44689</v>
@@ -11145,7 +11145,7 @@
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B733" s="1">
         <v>44690</v>
@@ -11159,7 +11159,7 @@
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B734" s="1">
         <v>44691</v>
@@ -11173,7 +11173,7 @@
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B735" s="1">
         <v>44692</v>
@@ -11187,7 +11187,7 @@
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B736" s="1">
         <v>44693</v>
@@ -11201,7 +11201,7 @@
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B737" s="1">
         <v>44694</v>
@@ -11215,7 +11215,7 @@
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B738" s="1">
         <v>44695</v>
@@ -11229,7 +11229,7 @@
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B739" s="1">
         <v>44696</v>
@@ -11243,7 +11243,7 @@
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B740" s="1">
         <v>44697</v>
@@ -11257,7 +11257,7 @@
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B741" s="1">
         <v>44698</v>
@@ -11271,7 +11271,7 @@
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B742" s="1">
         <v>44699</v>
@@ -11285,7 +11285,7 @@
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B743" s="1">
         <v>44700</v>
@@ -11299,7 +11299,7 @@
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B744" s="1">
         <v>44701</v>
@@ -11313,7 +11313,7 @@
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B745" s="1">
         <v>44702</v>
@@ -11327,7 +11327,7 @@
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B746" s="1">
         <v>44703</v>
@@ -11341,7 +11341,7 @@
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B747" s="1">
         <v>44704</v>
@@ -11355,7 +11355,7 @@
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B748" s="1">
         <v>44705</v>
@@ -11369,7 +11369,7 @@
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B749" s="1">
         <v>44706</v>
@@ -11383,7 +11383,7 @@
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B750" s="1">
         <v>44707</v>
@@ -11397,7 +11397,7 @@
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B751" s="1">
         <v>44708</v>
@@ -11411,7 +11411,7 @@
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B752" s="1">
         <v>44709</v>
@@ -11425,7 +11425,7 @@
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B753" s="1">
         <v>44710</v>
@@ -11439,7 +11439,7 @@
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B754" s="1">
         <v>44711</v>
@@ -11453,7 +11453,7 @@
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B755" s="1">
         <v>44712</v>
@@ -11467,7 +11467,7 @@
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B756" s="1">
         <v>44713</v>
@@ -11481,7 +11481,7 @@
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B757" s="1">
         <v>44714</v>
@@ -11495,7 +11495,7 @@
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B758" s="1">
         <v>44715</v>
@@ -11509,7 +11509,7 @@
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B759" s="1">
         <v>44716</v>
@@ -11523,7 +11523,7 @@
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B760" s="1">
         <v>44717</v>
@@ -11537,7 +11537,7 @@
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B761" s="1">
         <v>44718</v>
@@ -11551,7 +11551,7 @@
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B762" s="1">
         <v>44719</v>
@@ -11565,7 +11565,7 @@
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B763" s="1">
         <v>44720</v>
@@ -11579,7 +11579,7 @@
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B764" s="1">
         <v>44721</v>
@@ -11593,7 +11593,7 @@
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B765" s="1">
         <v>44722</v>
@@ -11607,7 +11607,7 @@
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B766" s="1">
         <v>44723</v>
@@ -11621,7 +11621,7 @@
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B767" s="1">
         <v>44724</v>
@@ -11635,7 +11635,7 @@
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B768" s="1">
         <v>44725</v>
@@ -11649,7 +11649,7 @@
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B769" s="1">
         <v>44726</v>
@@ -11663,7 +11663,7 @@
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B770" s="1">
         <v>44727</v>
@@ -11677,7 +11677,7 @@
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B771" s="1">
         <v>44728</v>
@@ -11691,7 +11691,7 @@
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B772" s="1">
         <v>44729</v>
@@ -11705,7 +11705,7 @@
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B773" s="1">
         <v>44730</v>
@@ -11719,7 +11719,7 @@
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B774" s="1">
         <v>44731</v>
@@ -11733,7 +11733,7 @@
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B775" s="1">
         <v>44732</v>
@@ -11747,7 +11747,7 @@
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B776" s="1">
         <v>44733</v>
@@ -11761,7 +11761,7 @@
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B777" s="1">
         <v>44734</v>
@@ -11775,7 +11775,7 @@
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B778" s="1">
         <v>44735</v>
@@ -11789,7 +11789,7 @@
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B779" s="1">
         <v>44736</v>
@@ -11803,7 +11803,7 @@
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B780" s="1">
         <v>44737</v>
@@ -11817,7 +11817,7 @@
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B781" s="1">
         <v>44738</v>
@@ -11831,7 +11831,7 @@
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B782" s="1">
         <v>44739</v>
@@ -11845,7 +11845,7 @@
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B783" s="1">
         <v>44740</v>
@@ -11859,7 +11859,7 @@
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B784" s="1">
         <v>44741</v>
@@ -11873,7 +11873,7 @@
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B785" s="1">
         <v>44742</v>
@@ -11887,7 +11887,7 @@
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B786" s="1">
         <v>44743</v>
@@ -11901,7 +11901,7 @@
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B787" s="1">
         <v>44744</v>
@@ -11915,7 +11915,7 @@
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B788" s="1">
         <v>44745</v>
@@ -11929,7 +11929,7 @@
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B789" s="1">
         <v>44746</v>
@@ -11943,7 +11943,7 @@
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B790" s="1">
         <v>44747</v>
@@ -11957,7 +11957,7 @@
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B791" s="1">
         <v>44748</v>
@@ -11971,7 +11971,7 @@
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B792" s="1">
         <v>44749</v>
@@ -11985,7 +11985,7 @@
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B793" s="1">
         <v>44750</v>
@@ -11999,7 +11999,7 @@
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B794" s="1">
         <v>44751</v>
@@ -12013,7 +12013,7 @@
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B795" s="1">
         <v>44752</v>
@@ -12027,7 +12027,7 @@
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B796" s="1">
         <v>44753</v>
@@ -12041,7 +12041,7 @@
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B797" s="1">
         <v>44754</v>
@@ -12055,7 +12055,7 @@
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B798" s="1">
         <v>44755</v>
@@ -12069,7 +12069,7 @@
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B799" s="1">
         <v>44756</v>
@@ -12083,7 +12083,7 @@
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B800" s="1">
         <v>44757</v>
@@ -12097,7 +12097,7 @@
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B801" s="1">
         <v>44758</v>
@@ -12111,7 +12111,7 @@
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B802" s="1">
         <v>44759</v>
@@ -12125,7 +12125,7 @@
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B803" s="1">
         <v>44760</v>
@@ -12139,7 +12139,7 @@
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B804" s="1">
         <v>44761</v>
@@ -12153,7 +12153,7 @@
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B805" s="1">
         <v>44762</v>
@@ -12167,7 +12167,7 @@
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B806" s="1">
         <v>44763</v>
@@ -12181,7 +12181,7 @@
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B807" s="1">
         <v>44764</v>
@@ -12195,7 +12195,7 @@
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B808" s="1">
         <v>44765</v>
@@ -12209,7 +12209,7 @@
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B809" s="1">
         <v>44766</v>
@@ -12223,7 +12223,7 @@
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B810" s="1">
         <v>44767</v>
@@ -12237,7 +12237,7 @@
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B811" s="1">
         <v>44768</v>
@@ -12251,7 +12251,7 @@
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B812" s="1">
         <v>44769</v>
@@ -12265,7 +12265,7 @@
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B813" s="1">
         <v>44770</v>
@@ -12279,7 +12279,7 @@
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B814" s="1">
         <v>44771</v>
@@ -12293,7 +12293,7 @@
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B815" s="1">
         <v>44772</v>
@@ -12307,7 +12307,7 @@
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B816" s="1">
         <v>44773</v>
@@ -12321,7 +12321,7 @@
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B817" s="1">
         <v>44774</v>
@@ -12335,7 +12335,7 @@
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B818" s="1">
         <v>44775</v>
@@ -12349,7 +12349,7 @@
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B819" s="1">
         <v>44776</v>
@@ -12363,7 +12363,7 @@
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B820" s="1">
         <v>44777</v>
@@ -12377,7 +12377,7 @@
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B821" s="1">
         <v>44778</v>
@@ -12391,7 +12391,7 @@
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B822" s="1">
         <v>44779</v>
@@ -12405,7 +12405,7 @@
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B823" s="1">
         <v>44780</v>
@@ -12419,7 +12419,7 @@
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B824" s="1">
         <v>44781</v>
@@ -12433,7 +12433,7 @@
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B825" s="1">
         <v>44782</v>
@@ -12447,7 +12447,7 @@
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B826" s="1">
         <v>44783</v>
@@ -12461,7 +12461,7 @@
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B827" s="1">
         <v>44784</v>
@@ -12475,7 +12475,7 @@
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B828" s="1">
         <v>44785</v>
@@ -12489,7 +12489,7 @@
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B829" s="1">
         <v>44786</v>
@@ -12503,7 +12503,7 @@
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B830" s="1">
         <v>44787</v>
@@ -12517,7 +12517,7 @@
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B831" s="1">
         <v>44788</v>
@@ -12531,7 +12531,7 @@
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B832" s="1">
         <v>44789</v>
@@ -12545,7 +12545,7 @@
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B833" s="1">
         <v>44790</v>
@@ -12559,7 +12559,7 @@
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B834" s="1">
         <v>44791</v>
@@ -12573,7 +12573,7 @@
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B835" s="1">
         <v>44792</v>
@@ -12587,7 +12587,7 @@
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B836" s="1">
         <v>44793</v>
@@ -12601,7 +12601,7 @@
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B837" s="1">
         <v>44794</v>
@@ -12615,7 +12615,7 @@
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B838" s="1">
         <v>44795</v>
@@ -12629,7 +12629,7 @@
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B839" s="1">
         <v>44796</v>
@@ -12643,7 +12643,7 @@
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B840" s="1">
         <v>44797</v>
@@ -12657,7 +12657,7 @@
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B841" s="1">
         <v>44798</v>
@@ -12671,7 +12671,7 @@
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B842" s="1">
         <v>44799</v>
@@ -12685,7 +12685,7 @@
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B843" s="1">
         <v>44800</v>
@@ -12699,7 +12699,7 @@
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B844" s="1">
         <v>44801</v>
@@ -12713,7 +12713,7 @@
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B845" s="1">
         <v>44802</v>
@@ -12727,7 +12727,7 @@
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B846" s="1">
         <v>44803</v>
@@ -12741,7 +12741,7 @@
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B847" s="1">
         <v>44804</v>
@@ -12755,7 +12755,7 @@
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B848" s="1">
         <v>44805</v>
@@ -12769,7 +12769,7 @@
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B849" s="1">
         <v>44806</v>
@@ -12783,7 +12783,7 @@
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B850" s="1">
         <v>44807</v>
@@ -12797,7 +12797,7 @@
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B851" s="1">
         <v>44808</v>
@@ -12811,7 +12811,7 @@
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B852" s="1">
         <v>44809</v>
@@ -12825,7 +12825,7 @@
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B853" s="1">
         <v>44810</v>
@@ -12839,7 +12839,7 @@
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B854" s="1">
         <v>44811</v>
@@ -12853,7 +12853,7 @@
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B855" s="1">
         <v>44812</v>
@@ -12867,7 +12867,7 @@
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B856" s="1">
         <v>44813</v>
@@ -12881,7 +12881,7 @@
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B857" s="1">
         <v>44814</v>
@@ -12895,7 +12895,7 @@
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B858" s="1">
         <v>44815</v>
@@ -12909,7 +12909,7 @@
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B859" s="1">
         <v>44816</v>
@@ -12923,7 +12923,7 @@
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B860" s="1">
         <v>44817</v>
@@ -12937,7 +12937,7 @@
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B861" s="1">
         <v>44818</v>
@@ -12951,7 +12951,7 @@
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B862" s="1">
         <v>44819</v>
@@ -12965,7 +12965,7 @@
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B863" s="1">
         <v>44820</v>
@@ -12979,7 +12979,7 @@
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B864" s="1">
         <v>44821</v>
@@ -12993,7 +12993,7 @@
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B865" s="1">
         <v>44822</v>
@@ -13007,7 +13007,7 @@
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B866" s="1">
         <v>44823</v>
@@ -13021,7 +13021,7 @@
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B867" s="1">
         <v>44824</v>
@@ -13035,7 +13035,7 @@
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B868" s="1">
         <v>44825</v>
@@ -13049,7 +13049,7 @@
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B869" s="1">
         <v>44826</v>
@@ -13063,7 +13063,7 @@
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B870" s="1">
         <v>44827</v>
@@ -13077,7 +13077,7 @@
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B871" s="1">
         <v>44828</v>
@@ -13091,7 +13091,7 @@
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B872" s="1">
         <v>44829</v>
@@ -13105,7 +13105,7 @@
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B873" s="1">
         <v>44830</v>
@@ -13119,7 +13119,7 @@
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B874" s="1">
         <v>44831</v>
@@ -13133,7 +13133,7 @@
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B875" s="1">
         <v>44832</v>
@@ -13147,7 +13147,7 @@
     </row>
     <row r="876" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B876" s="1">
         <v>44833</v>
@@ -13161,7 +13161,7 @@
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B877" s="1">
         <v>44834</v>
@@ -13175,7 +13175,7 @@
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B878" s="1">
         <v>44835</v>
@@ -13189,7 +13189,7 @@
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B879" s="1">
         <v>44836</v>
@@ -13203,7 +13203,7 @@
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B880" s="1">
         <v>44837</v>
@@ -13217,7 +13217,7 @@
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B881" s="1">
         <v>44838</v>
@@ -13231,7 +13231,7 @@
     </row>
     <row r="882" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B882" s="1">
         <v>44839</v>
@@ -13245,7 +13245,7 @@
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B883" s="1">
         <v>44840</v>
@@ -13259,7 +13259,7 @@
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B884" s="1">
         <v>44841</v>
@@ -13273,7 +13273,7 @@
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B885" s="1">
         <v>44842</v>
@@ -13287,7 +13287,7 @@
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B886" s="1">
         <v>44843</v>
@@ -13301,7 +13301,7 @@
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B887" s="1">
         <v>44844</v>
@@ -13315,7 +13315,7 @@
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B888" s="1">
         <v>44845</v>
@@ -13329,7 +13329,7 @@
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B889" s="1">
         <v>44846</v>
@@ -13343,7 +13343,7 @@
     </row>
     <row r="890" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B890" s="1">
         <v>44847</v>
@@ -13357,7 +13357,7 @@
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B891" s="1">
         <v>44848</v>
@@ -13371,7 +13371,7 @@
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B892" s="1">
         <v>44849</v>
@@ -13385,7 +13385,7 @@
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B893" s="1">
         <v>44850</v>
@@ -13399,7 +13399,7 @@
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B894" s="1">
         <v>44851</v>
@@ -13413,7 +13413,7 @@
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B895" s="1">
         <v>44852</v>
@@ -13427,7 +13427,7 @@
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B896" s="1">
         <v>44853</v>
@@ -13441,7 +13441,7 @@
     </row>
     <row r="897" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B897" s="1">
         <v>44854</v>
@@ -13455,7 +13455,7 @@
     </row>
     <row r="898" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B898" s="1">
         <v>44855</v>
@@ -13469,7 +13469,7 @@
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B899" s="1">
         <v>44856</v>
@@ -13483,7 +13483,7 @@
     </row>
     <row r="900" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B900" s="1">
         <v>44857</v>
@@ -13497,7 +13497,7 @@
     </row>
     <row r="901" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B901" s="1">
         <v>44858</v>
@@ -13511,7 +13511,7 @@
     </row>
     <row r="902" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B902" s="1">
         <v>44859</v>
@@ -13525,7 +13525,7 @@
     </row>
     <row r="903" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B903" s="1">
         <v>44860</v>
@@ -13539,7 +13539,7 @@
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B904" s="1">
         <v>44861</v>
@@ -13553,7 +13553,7 @@
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B905" s="1">
         <v>44862</v>
@@ -13567,7 +13567,7 @@
     </row>
     <row r="906" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B906" s="1">
         <v>44863</v>
@@ -13581,7 +13581,7 @@
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B907" s="1">
         <v>44864</v>
@@ -13595,7 +13595,7 @@
     </row>
     <row r="908" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B908" s="1">
         <v>44865</v>
@@ -13609,7 +13609,7 @@
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B909" s="1">
         <v>44866</v>
@@ -13623,7 +13623,7 @@
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B910" s="1">
         <v>44867</v>
@@ -13637,7 +13637,7 @@
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B911" s="1">
         <v>44868</v>
@@ -13651,7 +13651,7 @@
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B912" s="1">
         <v>44869</v>
@@ -13665,7 +13665,7 @@
     </row>
     <row r="913" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B913" s="1">
         <v>44870</v>
@@ -13679,7 +13679,7 @@
     </row>
     <row r="914" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B914" s="1">
         <v>44871</v>
@@ -13693,7 +13693,7 @@
     </row>
     <row r="915" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B915" s="1">
         <v>44872</v>
@@ -13707,7 +13707,7 @@
     </row>
     <row r="916" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B916" s="1">
         <v>44873</v>
@@ -13721,7 +13721,7 @@
     </row>
     <row r="917" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B917" s="1">
         <v>44874</v>
@@ -13735,7 +13735,7 @@
     </row>
     <row r="918" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B918" s="1">
         <v>44875</v>
@@ -13749,7 +13749,7 @@
     </row>
     <row r="919" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B919" s="1">
         <v>44876</v>
@@ -13763,7 +13763,7 @@
     </row>
     <row r="920" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B920" s="1">
         <v>44877</v>
@@ -13777,7 +13777,7 @@
     </row>
     <row r="921" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B921" s="1">
         <v>44878</v>
@@ -13791,7 +13791,7 @@
     </row>
     <row r="922" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B922" s="1">
         <v>44879</v>
@@ -13805,7 +13805,7 @@
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B923" s="1">
         <v>44880</v>
